--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2 input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -42,13 +42,7 @@
     <t>CoreSimulation CPU</t>
   </si>
   <si>
-    <t>NoDATA</t>
-  </si>
-  <si>
     <t>Numero Circuito</t>
-  </si>
-  <si>
-    <t>NoData</t>
   </si>
   <si>
     <t>Tempo Cuda</t>
@@ -187,13 +181,10 @@
                 <c:pt idx="5">
                   <c:v>8468</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>35576</c:v>
                 </c:pt>
               </c:numCache>
@@ -223,8 +214,11 @@
                 <c:pt idx="5">
                   <c:v>120.837</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.597</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1113.597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,13 +254,10 @@
                 <c:pt idx="5">
                   <c:v>8468</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>35576</c:v>
                 </c:pt>
               </c:numCache>
@@ -278,30 +269,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.9922440000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322.26600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69613824"/>
-        <c:axId val="69652480"/>
+        <c:axId val="82707968"/>
+        <c:axId val="82709504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69613824"/>
+        <c:axId val="82707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69652480"/>
+        <c:crossAx val="82709504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69652480"/>
+        <c:axId val="82709504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +324,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69613824"/>
+        <c:crossAx val="82707968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -322,7 +337,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -368,31 +383,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>2894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>5992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>19657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,8 +436,11 @@
                 <c:pt idx="5">
                   <c:v>101.051</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>934.80499999999995</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,31 +459,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>2894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>5992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>19657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,30 +494,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2705</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103031552"/>
-        <c:axId val="103033088"/>
+        <c:axId val="86891904"/>
+        <c:axId val="87176320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103031552"/>
+        <c:axId val="86891904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103033088"/>
+        <c:crossAx val="87176320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103033088"/>
+        <c:axId val="87176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +552,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103031552"/>
+        <c:crossAx val="86891904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -520,7 +565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -566,31 +611,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>6627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>24846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>33468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,8 +667,11 @@
                 <c:pt idx="5">
                   <c:v>120.837</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.597</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1113.597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,31 +690,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>6627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>24846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>33468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,30 +728,60 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1064</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69859200"/>
-        <c:axId val="70227840"/>
+        <c:axId val="82767872"/>
+        <c:axId val="82769408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69859200"/>
+        <c:axId val="82767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70227840"/>
+        <c:crossAx val="82769408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70227840"/>
+        <c:axId val="82769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +789,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69859200"/>
+        <c:crossAx val="82767872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -718,7 +802,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -764,31 +848,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>13460</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>21575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,8 +907,11 @@
                 <c:pt idx="5">
                   <c:v>120.837</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.597</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1113.597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,65 +930,101 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>13460</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>21575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$H$2:$H$12</c:f>
+              <c:f>'4 input'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83682048"/>
-        <c:axId val="83719680"/>
+        <c:axId val="83830656"/>
+        <c:axId val="83832192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83682048"/>
+        <c:axId val="83830656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83719680"/>
+        <c:crossAx val="83832192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83719680"/>
+        <c:axId val="83832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +1032,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83682048"/>
+        <c:crossAx val="83830656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,7 +1045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -962,31 +1091,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>10186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>15591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,8 +1141,11 @@
                 <c:pt idx="5">
                   <c:v>120.837</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.597</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1113.597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,31 +1164,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>10186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>15591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,30 +1196,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2437</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83971456"/>
-        <c:axId val="84432000"/>
+        <c:axId val="83873792"/>
+        <c:axId val="83875328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83971456"/>
+        <c:axId val="83873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84432000"/>
+        <c:crossAx val="83875328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84432000"/>
+        <c:axId val="83875328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1251,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83971456"/>
+        <c:crossAx val="83873792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,7 +1264,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1160,31 +1310,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>2894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>5992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>19657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,8 +1363,11 @@
                 <c:pt idx="5">
                   <c:v>120.837</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.597</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1113.597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,31 +1386,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>2894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>5992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>19657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,30 +1421,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>363.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3069</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86189952"/>
-        <c:axId val="87479424"/>
+        <c:axId val="86726528"/>
+        <c:axId val="86728064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86189952"/>
+        <c:axId val="86726528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87479424"/>
+        <c:crossAx val="86728064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87479424"/>
+        <c:axId val="86728064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1479,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86189952"/>
+        <c:crossAx val="86726528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,7 +1492,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1379,13 +1559,10 @@
                 <c:pt idx="5">
                   <c:v>8468</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>35576</c:v>
                 </c:pt>
               </c:numCache>
@@ -1415,8 +1592,11 @@
                 <c:pt idx="5">
                   <c:v>101.051</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>934.80499999999995</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,13 +1632,10 @@
                 <c:pt idx="5">
                   <c:v>8468</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>35576</c:v>
                 </c:pt>
               </c:numCache>
@@ -1470,30 +1647,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.9836460000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.63300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102497280"/>
-        <c:axId val="102508800"/>
+        <c:axId val="86781952"/>
+        <c:axId val="86783488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102497280"/>
+        <c:axId val="86781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102508800"/>
+        <c:crossAx val="86783488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102508800"/>
+        <c:axId val="86783488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1702,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102497280"/>
+        <c:crossAx val="86781952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1514,7 +1715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1560,31 +1761,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>6627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>24846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>33468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,8 +1817,11 @@
                 <c:pt idx="5">
                   <c:v>101.051</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>934.80499999999995</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,31 +1840,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>6627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>24846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>33468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,30 +1878,60 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>449</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103639296"/>
-        <c:axId val="103653376"/>
+        <c:axId val="86804352"/>
+        <c:axId val="86805888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103639296"/>
+        <c:axId val="86804352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103653376"/>
+        <c:crossAx val="86805888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103653376"/>
+        <c:axId val="86805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1939,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103639296"/>
+        <c:crossAx val="86804352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1952,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1758,31 +1998,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>13460</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>21575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,8 +2057,11 @@
                 <c:pt idx="5">
                   <c:v>101.051</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>934.80499999999995</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,65 +2080,101 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
+                  <c:v>13460</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29573</c:v>
+                  <c:v>21575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$I$2:$I$12</c:f>
+              <c:f>'4 input'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103674240"/>
-        <c:axId val="103675776"/>
+        <c:axId val="86843392"/>
+        <c:axId val="86844928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103674240"/>
+        <c:axId val="86843392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103675776"/>
+        <c:crossAx val="86844928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103675776"/>
+        <c:axId val="86844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +2182,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103674240"/>
+        <c:crossAx val="86843392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1910,7 +2195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,31 +2241,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>10186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>15591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,8 +2291,11 @@
                 <c:pt idx="5">
                   <c:v>101.051</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>934.80499999999995</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,31 +2314,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>367</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977</c:v>
+                  <c:v>10186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1970</c:v>
+                  <c:v>15591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8468</c:v>
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35576</c:v>
+                  <c:v>35893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,30 +2346,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1577</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88291968"/>
-        <c:axId val="88322432"/>
+        <c:axId val="86873600"/>
+        <c:axId val="86875136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88291968"/>
+        <c:axId val="86873600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88322432"/>
+        <c:crossAx val="86875136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88322432"/>
+        <c:axId val="86875136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2401,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88291968"/>
+        <c:crossAx val="86873600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,7 +2414,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2707,7 +3013,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2739,16 +3045,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2771,9 +3077,18 @@
       <c r="F2">
         <v>1.95</v>
       </c>
+      <c r="H2">
+        <v>6.9922440000000003</v>
+      </c>
+      <c r="I2">
+        <v>6.9836460000000002</v>
+      </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>0</v>
+        <v>8.5980000000001056E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.9650000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2791,15 +3106,24 @@
         <v>0.396789</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>2.4704999999999977E-2</v>
       </c>
       <c r="F3">
         <v>3.0185</v>
       </c>
+      <c r="H3">
+        <v>14.702999999999999</v>
+      </c>
+      <c r="I3">
+        <v>14.678000000000001</v>
+      </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="1">H3-I3</f>
-        <v>0</v>
+        <v>2.4999999999998579E-2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2823,9 +3147,18 @@
       <c r="F4">
         <v>3.3661249999999998</v>
       </c>
+      <c r="H4">
+        <v>20.038</v>
+      </c>
+      <c r="I4">
+        <v>19.95</v>
+      </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8000000000000966E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2849,9 +3182,18 @@
       <c r="F5">
         <v>4.6784999999999997</v>
       </c>
+      <c r="H5">
+        <v>31.63</v>
+      </c>
+      <c r="I5">
+        <v>31.14</v>
+      </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="K5">
+        <v>4.38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2875,9 +3217,18 @@
       <c r="F6">
         <v>5.077</v>
       </c>
+      <c r="H6">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="I6">
+        <v>36.322000000000003</v>
+      </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4480000000000004</v>
+      </c>
+      <c r="K6">
+        <v>5.08</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2901,9 +3252,18 @@
       <c r="F7">
         <v>7.14</v>
       </c>
+      <c r="H7">
+        <v>97.39</v>
+      </c>
+      <c r="I7">
+        <v>70.314999999999998</v>
+      </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.075000000000003</v>
+      </c>
+      <c r="K7">
+        <v>7.133</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2911,9 +3271,34 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>20692</v>
+      </c>
+      <c r="C8">
+        <v>1113.597</v>
+      </c>
+      <c r="D8">
+        <v>934.80499999999995</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>178.79200000000003</v>
+      </c>
+      <c r="F8">
+        <v>9.8862000000000005</v>
+      </c>
+      <c r="H8">
+        <v>322.26600000000002</v>
+      </c>
+      <c r="I8">
+        <v>137.63300000000001</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184.63300000000001</v>
+      </c>
+      <c r="K8">
+        <v>9.8510000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2922,71 +3307,48 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20692</v>
+        <v>35576</v>
       </c>
       <c r="C9">
-        <v>1113.597</v>
+        <v>3106</v>
       </c>
       <c r="D9">
-        <v>934.80499999999995</v>
+        <v>2590</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>178.79200000000003</v>
+        <v>516</v>
       </c>
       <c r="F9">
-        <v>9.8862000000000005</v>
+        <v>10.16</v>
+      </c>
+      <c r="H9">
+        <v>1024</v>
+      </c>
+      <c r="I9">
+        <v>224</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="K9">
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>29573</v>
-      </c>
-      <c r="E10">
-        <f>C10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11">
-        <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35576</v>
-      </c>
-      <c r="E11">
-        <f>C11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3019,7 +3381,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3029,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3047,16 +3409,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3064,24 +3426,33 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>4.7586999999999997E-2</v>
+        <v>0.26856099999999999</v>
       </c>
       <c r="D2">
-        <v>4.0939000000000003E-2</v>
+        <v>0.25469999999999998</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>6.6479999999999942E-3</v>
+        <v>1.3861000000000012E-2</v>
       </c>
       <c r="F2">
-        <v>1.95</v>
+        <v>2.42</v>
+      </c>
+      <c r="H2">
+        <v>16.78</v>
+      </c>
+      <c r="I2">
+        <v>16.760000000000002</v>
       </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>0</v>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3090,24 +3461,33 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>394</v>
       </c>
       <c r="C3">
-        <v>0.42149399999999998</v>
+        <v>2.7252000000000001</v>
       </c>
       <c r="D3">
-        <v>0.396789</v>
+        <v>2.6442999999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
-        <v>2.4704999999999977E-2</v>
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>8.0900000000000194E-2</v>
       </c>
       <c r="F3">
-        <v>3.0185</v>
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="H3">
+        <v>46.3</v>
+      </c>
+      <c r="I3">
+        <v>46.2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="1">H3-I3</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3116,24 +3496,33 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>367</v>
+        <v>560</v>
       </c>
       <c r="C4">
-        <v>1.305431</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="D4">
-        <v>1.2346060000000001</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.0824999999999916E-2</v>
+        <v>0.13300000000000045</v>
       </c>
       <c r="F4">
-        <v>3.3661249999999998</v>
+        <v>3.5594999999999999</v>
+      </c>
+      <c r="H4">
+        <v>53.6</v>
+      </c>
+      <c r="I4">
+        <v>53.4</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3142,24 +3531,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>977</v>
+        <v>1363</v>
       </c>
       <c r="C5">
-        <v>4.8668040000000001</v>
+        <v>13.369</v>
       </c>
       <c r="D5">
-        <v>4.5367369999999996</v>
+        <v>12.763999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.33006700000000055</v>
+        <v>0.60500000000000043</v>
       </c>
       <c r="F5">
-        <v>4.6784999999999997</v>
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="H5">
+        <v>61</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3168,24 +3566,33 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1970</v>
+        <v>6627</v>
       </c>
       <c r="C6">
-        <v>11.698964999999999</v>
+        <v>175.4</v>
       </c>
       <c r="D6">
-        <v>10.496433</v>
+        <v>163.34</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.2025319999999997</v>
+        <v>12.060000000000002</v>
       </c>
       <c r="F6">
-        <v>5.077</v>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>178</v>
+      </c>
+      <c r="I6">
+        <v>161</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>8.52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3194,24 +3601,33 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8468</v>
+        <v>13854</v>
       </c>
       <c r="C7">
-        <v>120.837</v>
+        <v>1215</v>
       </c>
       <c r="D7">
-        <v>101.051</v>
+        <v>1161</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>19.786000000000001</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>7.14</v>
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>454</v>
+      </c>
+      <c r="I7">
+        <v>346</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="K7">
+        <v>11.7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3219,9 +3635,34 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>20255</v>
+      </c>
+      <c r="C8">
+        <v>2136</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>465</v>
+      </c>
+      <c r="I8">
+        <v>287</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="K8">
+        <v>10.1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3230,24 +3671,33 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20692</v>
+        <v>24846</v>
       </c>
       <c r="C9">
-        <v>1113.597</v>
+        <v>3146</v>
       </c>
       <c r="D9">
-        <v>934.80499999999995</v>
+        <v>2924</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>178.79200000000003</v>
+        <v>222</v>
       </c>
       <c r="F9">
-        <v>9.8862000000000005</v>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>572</v>
+      </c>
+      <c r="I9">
+        <v>309</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="K9">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3256,18 +3706,33 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>29573</v>
+        <v>33468</v>
+      </c>
+      <c r="C10">
+        <v>5628</v>
+      </c>
+      <c r="D10">
+        <v>5185</v>
       </c>
       <c r="E10">
         <f>C10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
+        <v>443</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>957</v>
+      </c>
+      <c r="I10">
+        <v>421</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>536</v>
+      </c>
+      <c r="K10">
+        <v>10.7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3276,28 +3741,33 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35576</v>
+        <v>35486</v>
+      </c>
+      <c r="C11">
+        <v>6165</v>
+      </c>
+      <c r="D11">
+        <v>5642</v>
       </c>
       <c r="E11">
         <f>C11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
+        <v>523</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>1064</v>
+      </c>
+      <c r="I11">
+        <v>449</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+      <c r="K11">
         <v>11</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3324,17 +3794,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3352,16 +3822,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3369,24 +3839,33 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>4.7586999999999997E-2</v>
+        <v>0.84</v>
       </c>
       <c r="D2">
-        <v>4.0939000000000003E-2</v>
+        <v>0.81</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>6.6479999999999942E-3</v>
+        <v>2.9999999999999916E-2</v>
       </c>
       <c r="F2">
-        <v>1.95</v>
+        <v>2.6</v>
+      </c>
+      <c r="H2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I2">
+        <v>34.700000000000003</v>
       </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3395,50 +3874,68 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>456</v>
       </c>
       <c r="C3">
-        <v>0.42149399999999998</v>
+        <v>5.9</v>
       </c>
       <c r="D3">
-        <v>0.396789</v>
+        <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
-        <v>2.4704999999999977E-2</v>
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>0.10000000000000053</v>
       </c>
       <c r="F3">
-        <v>3.0185</v>
+        <v>3.2</v>
+      </c>
+      <c r="H3">
+        <v>86.2</v>
+      </c>
+      <c r="I3">
+        <v>86.1</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="1">H3-I3</f>
-        <v>0</v>
+        <v>0.10000000000000853</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <f t="shared" ref="A4:A10" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
-        <v>367</v>
+        <v>750</v>
       </c>
       <c r="C4">
-        <v>1.305431</v>
+        <v>11.5</v>
       </c>
       <c r="D4">
-        <v>1.2346060000000001</v>
+        <v>11.2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.0824999999999916E-2</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="F4">
-        <v>3.3661249999999998</v>
+        <v>3.7</v>
+      </c>
+      <c r="H4">
+        <v>106.8</v>
+      </c>
+      <c r="I4">
+        <v>106.5</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="K4">
+        <v>3.7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3447,24 +3944,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>977</v>
+        <v>1105</v>
       </c>
       <c r="C5">
-        <v>4.8668040000000001</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>4.5367369999999996</v>
+        <v>18.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.33006700000000055</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>4.6784999999999997</v>
+        <v>4.05</v>
+      </c>
+      <c r="H5">
+        <v>106.8</v>
+      </c>
+      <c r="I5">
+        <v>106.3</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3473,24 +3979,33 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1970</v>
+        <v>2609</v>
       </c>
       <c r="C6">
-        <v>11.698964999999999</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>10.496433</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.2025319999999997</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>5.077</v>
+        <v>4.5</v>
+      </c>
+      <c r="H6">
+        <v>143</v>
+      </c>
+      <c r="I6">
+        <v>140</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3499,24 +4014,33 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8468</v>
+        <v>4808</v>
       </c>
       <c r="C7">
-        <v>120.837</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>101.051</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>19.786000000000001</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>7.14</v>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>163</v>
+      </c>
+      <c r="I7">
+        <v>154</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3524,9 +4048,34 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>8778</v>
+      </c>
+      <c r="C8">
+        <v>345</v>
+      </c>
+      <c r="D8">
+        <v>323</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>5.7</v>
+      </c>
+      <c r="H8">
+        <v>205</v>
+      </c>
+      <c r="I8">
+        <v>179</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>5.7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3535,24 +4084,33 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20692</v>
+        <v>13460</v>
       </c>
       <c r="C9">
-        <v>1113.597</v>
+        <v>939</v>
       </c>
       <c r="D9">
-        <v>934.80499999999995</v>
+        <v>885</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>178.79200000000003</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>9.8862000000000005</v>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>266</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="K9">
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3561,18 +4119,33 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>29573</v>
+        <v>21575</v>
+      </c>
+      <c r="C10">
+        <v>4443</v>
+      </c>
+      <c r="D10">
+        <v>4284</v>
       </c>
       <c r="E10">
         <f>C10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H10">
+        <v>799</v>
+      </c>
+      <c r="I10">
+        <v>587</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3581,44 +4154,83 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35576</v>
+        <v>24144</v>
+      </c>
+      <c r="C11">
+        <v>5026</v>
+      </c>
+      <c r="D11">
+        <v>4813</v>
       </c>
       <c r="E11">
         <f>C11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
+        <v>213</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>821</v>
+      </c>
+      <c r="I11">
+        <v>530</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>31875</v>
+      </c>
+      <c r="C12">
+        <v>9078</v>
+      </c>
+      <c r="D12">
+        <v>8668</v>
+      </c>
+      <c r="E12">
+        <f>C12-D12</f>
+        <v>410</v>
+      </c>
+      <c r="F12">
         <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1467</v>
+      </c>
+      <c r="I12">
+        <v>802</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>665</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <f>2000*2^B16</f>
+      <c r="C15">
+        <f>2000*2^B15</f>
         <v>32000</v>
       </c>
     </row>
@@ -3632,14 +4244,14 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3657,16 +4269,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3674,24 +4286,33 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>4.7586999999999997E-2</v>
+        <v>2.17</v>
       </c>
       <c r="D2">
-        <v>4.0939000000000003E-2</v>
+        <v>2.13</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>6.6479999999999942E-3</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="F2">
-        <v>1.95</v>
+        <v>2.74</v>
+      </c>
+      <c r="H2">
+        <v>77.5</v>
+      </c>
+      <c r="I2">
+        <v>77.400000000000006</v>
       </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3700,24 +4321,33 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>3053</v>
       </c>
       <c r="C3">
-        <v>0.42149399999999998</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>0.396789</v>
+        <v>126</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
-        <v>2.4704999999999977E-2</v>
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3.0185</v>
+        <v>4.5</v>
+      </c>
+      <c r="H3">
+        <v>270</v>
+      </c>
+      <c r="I3">
+        <v>266</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="1">H3-I3</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4.58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3726,24 +4356,33 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>367</v>
+        <v>6739</v>
       </c>
       <c r="C4">
-        <v>1.305431</v>
+        <v>613</v>
       </c>
       <c r="D4">
-        <v>1.2346060000000001</v>
+        <v>601</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.0824999999999916E-2</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>3.3661249999999998</v>
+        <v>7.54</v>
+      </c>
+      <c r="H4">
+        <v>516</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>7.36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3752,24 +4391,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>977</v>
+        <v>10186</v>
       </c>
       <c r="C5">
-        <v>4.8668040000000001</v>
+        <v>921</v>
       </c>
       <c r="D5">
-        <v>4.5367369999999996</v>
+        <v>892</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.33006700000000055</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>4.6784999999999997</v>
+        <v>5.3</v>
+      </c>
+      <c r="H5">
+        <v>407</v>
+      </c>
+      <c r="I5">
+        <v>371</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>5.38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3778,24 +4426,33 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1970</v>
+        <v>15591</v>
       </c>
       <c r="C6">
-        <v>11.698964999999999</v>
+        <v>2549</v>
       </c>
       <c r="D6">
-        <v>10.496433</v>
+        <v>2472</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.2025319999999997</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>5.077</v>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>525</v>
+      </c>
+      <c r="I6">
+        <v>433</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="K6">
+        <v>5.93</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3804,24 +4461,33 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8468</v>
+        <v>19154</v>
       </c>
       <c r="C7">
-        <v>120.837</v>
+        <v>4085</v>
       </c>
       <c r="D7">
-        <v>101.051</v>
+        <v>3957</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>19.786000000000001</v>
+        <v>128</v>
       </c>
       <c r="F7">
-        <v>7.14</v>
+        <v>6.4</v>
+      </c>
+      <c r="H7">
+        <v>749</v>
+      </c>
+      <c r="I7">
+        <v>538</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="K7">
+        <v>6.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3829,9 +4495,34 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>27122</v>
+      </c>
+      <c r="C8">
+        <v>12301</v>
+      </c>
+      <c r="D8">
+        <v>12021</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1467</v>
+      </c>
+      <c r="I8">
+        <v>1133</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3840,74 +4531,33 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20692</v>
+        <v>35893</v>
       </c>
       <c r="C9">
-        <v>1113.597</v>
+        <v>21335</v>
       </c>
       <c r="D9">
-        <v>934.80499999999995</v>
+        <v>20799</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>178.79200000000003</v>
+        <v>536</v>
       </c>
       <c r="F9">
-        <v>9.8862000000000005</v>
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>2437</v>
+      </c>
+      <c r="I9">
+        <v>1577</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>29573</v>
-      </c>
-      <c r="E10">
-        <f>C10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35576</v>
-      </c>
-      <c r="E11">
-        <f>C11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="K9">
         <v>11</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3937,14 +4587,14 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3962,16 +4612,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3979,24 +4629,33 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>549</v>
       </c>
       <c r="C2">
-        <v>4.7586999999999997E-2</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>4.0939000000000003E-2</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>6.6479999999999942E-3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.95</v>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>363.2</v>
+      </c>
+      <c r="I2">
+        <v>363</v>
       </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>0</v>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4005,24 +4664,33 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>1423</v>
       </c>
       <c r="C3">
-        <v>0.42149399999999998</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>0.396789</v>
+        <v>140</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
-        <v>2.4704999999999977E-2</v>
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3.0185</v>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>692</v>
+      </c>
+      <c r="I3">
+        <v>691</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="1">H3-I3</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4031,24 +4699,33 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>367</v>
+        <v>2894</v>
       </c>
       <c r="C4">
-        <v>1.305431</v>
+        <v>433</v>
       </c>
       <c r="D4">
-        <v>1.2346060000000001</v>
+        <v>431</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.0824999999999916E-2</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3.3661249999999998</v>
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>1086</v>
+      </c>
+      <c r="I4">
+        <v>1082</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4057,24 +4734,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>977</v>
+        <v>4668</v>
       </c>
       <c r="C5">
-        <v>4.8668040000000001</v>
+        <v>1948</v>
       </c>
       <c r="D5">
-        <v>4.5367369999999996</v>
+        <v>1942</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.33006700000000055</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>4.6784999999999997</v>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1873</v>
+      </c>
+      <c r="I5">
+        <v>1865</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4083,24 +4769,33 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1970</v>
+        <v>5992</v>
       </c>
       <c r="C6">
-        <v>11.698964999999999</v>
+        <v>2758</v>
       </c>
       <c r="D6">
-        <v>10.496433</v>
+        <v>2746</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.2025319999999997</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>5.077</v>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>1521</v>
+      </c>
+      <c r="I6">
+        <v>1506</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4109,24 +4804,33 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8468</v>
+        <v>7432</v>
       </c>
       <c r="C7">
-        <v>120.837</v>
+        <v>3970</v>
       </c>
       <c r="D7">
-        <v>101.051</v>
+        <v>3949</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>19.786000000000001</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>7.14</v>
+        <v>9.6</v>
+      </c>
+      <c r="H7">
+        <v>1506</v>
+      </c>
+      <c r="I7">
+        <v>1482</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4134,9 +4838,34 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>14031</v>
+      </c>
+      <c r="C8">
+        <v>9540</v>
+      </c>
+      <c r="D8">
+        <v>9484</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>2308</v>
+      </c>
+      <c r="I8">
+        <v>2200</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4145,24 +4874,33 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20692</v>
+        <v>19657</v>
       </c>
       <c r="C9">
-        <v>1113.597</v>
+        <v>16074</v>
       </c>
       <c r="D9">
-        <v>934.80499999999995</v>
+        <v>15948</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>178.79200000000003</v>
+        <v>126</v>
       </c>
       <c r="F9">
-        <v>9.8862000000000005</v>
+        <v>10.5</v>
+      </c>
+      <c r="H9">
+        <v>2535</v>
+      </c>
+      <c r="I9">
+        <v>2318</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4171,34 +4909,39 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>29573</v>
+        <v>24498</v>
+      </c>
+      <c r="C10">
+        <v>25544</v>
+      </c>
+      <c r="D10">
+        <v>25324</v>
       </c>
       <c r="E10">
         <f>C10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
+        <v>220</v>
+      </c>
+      <c r="F10">
+        <v>11.5</v>
+      </c>
+      <c r="H10">
+        <v>3069</v>
+      </c>
+      <c r="I10">
+        <v>2705</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35576</v>
-      </c>
-      <c r="E11">
-        <f>C11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -4252,7 +4995,7 @@
     </row>
     <row r="33" spans="2:2" ht="51">
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2 input" sheetId="1" r:id="rId1"/>
@@ -298,25 +298,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82707968"/>
-        <c:axId val="82709504"/>
+        <c:axId val="85992576"/>
+        <c:axId val="85994112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82707968"/>
+        <c:axId val="85992576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82709504"/>
+        <c:crossAx val="85994112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82709504"/>
+        <c:axId val="85994112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +324,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82707968"/>
+        <c:crossAx val="85992576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -337,7 +337,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -414,33 +414,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$D$2:$D$12</c:f>
+              <c:f>'6 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.0939000000000003E-2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396789</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2346060000000001</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5367369999999996</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.496433</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.051</c:v>
+                  <c:v>3949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>9484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>15948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,25 +529,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86891904"/>
-        <c:axId val="87176320"/>
+        <c:axId val="86694912"/>
+        <c:axId val="86840064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86891904"/>
+        <c:axId val="86694912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87176320"/>
+        <c:crossAx val="86840064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87176320"/>
+        <c:axId val="86840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +555,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86891904"/>
+        <c:crossAx val="86694912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +568,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -645,33 +648,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$C$2:$C$12</c:f>
+              <c:f>'3 input'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.7586999999999997E-2</c:v>
+                  <c:v>0.26856099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42149399999999998</c:v>
+                  <c:v>2.7252000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305431</c:v>
+                  <c:v>4.0780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8668040000000001</c:v>
+                  <c:v>13.369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.698964999999999</c:v>
+                  <c:v>175.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.837</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1113.597</c:v>
+                  <c:v>2136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3106</c:v>
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,25 +772,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82767872"/>
-        <c:axId val="82769408"/>
+        <c:axId val="86023552"/>
+        <c:axId val="86049920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82767872"/>
+        <c:axId val="86023552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82769408"/>
+        <c:crossAx val="86049920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82769408"/>
+        <c:axId val="86049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +798,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82767872"/>
+        <c:crossAx val="86023552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,7 +811,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -885,33 +894,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$C$2:$C$12</c:f>
+              <c:f>'4 input'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.7586999999999997E-2</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42149399999999998</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305431</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8668040000000001</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.698964999999999</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.837</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1113.597</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3106</c:v>
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,10 +985,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$H$2:$H$11</c:f>
+              <c:f>'4 input'!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>34.799999999999997</c:v>
                 </c:pt>
@@ -1000,31 +1018,34 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83830656"/>
-        <c:axId val="83832192"/>
+        <c:axId val="86066688"/>
+        <c:axId val="86068224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83830656"/>
+        <c:axId val="86066688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83832192"/>
+        <c:crossAx val="86068224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83832192"/>
+        <c:axId val="86068224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1053,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83830656"/>
+        <c:crossAx val="86066688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,7 +1066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1119,33 +1140,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$C$2:$C$12</c:f>
+              <c:f>'5 input'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.7586999999999997E-2</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42149399999999998</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305431</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8668040000000001</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.698964999999999</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.837</c:v>
+                  <c:v>4085</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1113.597</c:v>
+                  <c:v>12301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3106</c:v>
+                  <c:v>21335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,25 +1246,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83873792"/>
-        <c:axId val="83875328"/>
+        <c:axId val="86097280"/>
+        <c:axId val="86508672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83873792"/>
+        <c:axId val="86097280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83875328"/>
+        <c:crossAx val="86508672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83875328"/>
+        <c:axId val="86508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1272,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83873792"/>
+        <c:crossAx val="86097280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1264,7 +1285,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,33 +1362,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$C$2:$C$12</c:f>
+              <c:f>'6 input'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.7586999999999997E-2</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42149399999999998</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305431</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8668040000000001</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.698964999999999</c:v>
+                  <c:v>2758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.837</c:v>
+                  <c:v>3970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1113.597</c:v>
+                  <c:v>9540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3106</c:v>
+                  <c:v>16074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,25 +1477,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86726528"/>
-        <c:axId val="86728064"/>
+        <c:axId val="86525440"/>
+        <c:axId val="86526976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86726528"/>
+        <c:axId val="86525440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86728064"/>
+        <c:crossAx val="86526976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86728064"/>
+        <c:axId val="86526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1503,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86726528"/>
+        <c:crossAx val="86525440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,7 +1516,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1676,25 +1700,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86781952"/>
-        <c:axId val="86783488"/>
+        <c:axId val="86568320"/>
+        <c:axId val="86590592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86781952"/>
+        <c:axId val="86568320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86783488"/>
+        <c:crossAx val="86590592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86783488"/>
+        <c:axId val="86590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1726,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86781952"/>
+        <c:crossAx val="86568320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1739,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1795,33 +1819,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$D$2:$D$12</c:f>
+              <c:f>'3 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.0939000000000003E-2</c:v>
+                  <c:v>0.25469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396789</c:v>
+                  <c:v>2.6442999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2346060000000001</c:v>
+                  <c:v>3.9449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5367369999999996</c:v>
+                  <c:v>12.763999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.496433</c:v>
+                  <c:v>163.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.051</c:v>
+                  <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,25 +1943,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86804352"/>
-        <c:axId val="86805888"/>
+        <c:axId val="86607360"/>
+        <c:axId val="86608896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86804352"/>
+        <c:axId val="86607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86805888"/>
+        <c:crossAx val="86608896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86805888"/>
+        <c:axId val="86608896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1969,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86804352"/>
+        <c:crossAx val="86607360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1952,7 +1982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2035,33 +2065,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$D$2:$D$12</c:f>
+              <c:f>'4 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.0939000000000003E-2</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396789</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2346060000000001</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5367369999999996</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.496433</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.051</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,10 +2156,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$I$2:$I$11</c:f>
+              <c:f>'4 input'!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
@@ -2150,31 +2189,34 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86843392"/>
-        <c:axId val="86844928"/>
+        <c:axId val="86629760"/>
+        <c:axId val="86647936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86843392"/>
+        <c:axId val="86629760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86844928"/>
+        <c:crossAx val="86647936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86844928"/>
+        <c:axId val="86647936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2224,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86843392"/>
+        <c:crossAx val="86629760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,7 +2237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2269,33 +2311,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$D$2:$D$12</c:f>
+              <c:f>'5 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.0939000000000003E-2</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396789</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2346060000000001</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5367369999999996</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.496433</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.051</c:v>
+                  <c:v>3957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>934.80499999999995</c:v>
+                  <c:v>12021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>20799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,25 +2417,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86873600"/>
-        <c:axId val="86875136"/>
+        <c:axId val="86672512"/>
+        <c:axId val="86674048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86873600"/>
+        <c:axId val="86672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86875136"/>
+        <c:crossAx val="86674048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86875136"/>
+        <c:axId val="86674048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2443,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86873600"/>
+        <c:crossAx val="86672512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,7 +2456,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3128,7 +3170,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <f t="shared" ref="A4:A9" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -3483,7 +3525,7 @@
         <v>46.2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">H3-I3</f>
+        <f t="shared" ref="J3:J11" si="1">H3-I3</f>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="K3">
@@ -3492,7 +3534,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <f t="shared" ref="A4:A10" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -3796,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -4244,7 +4286,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4343,7 +4385,7 @@
         <v>266</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">H3-I3</f>
+        <f t="shared" ref="J3:J9" si="1">H3-I3</f>
         <v>4</v>
       </c>
       <c r="K3">
@@ -4352,7 +4394,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <f t="shared" ref="A4:A9" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -4985,7 +5027,7 @@
   <dimension ref="B3:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Sopra temi totali sotto tempi core</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
 </sst>
 </file>
@@ -134,6 +137,299 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>3 input - 16k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.26856099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84057472"/>
+        <c:axId val="84477056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84057472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of Cells</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84477056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84477056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84057472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>2</a:t>
             </a:r>
@@ -298,25 +594,212 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85992576"/>
-        <c:axId val="85994112"/>
+        <c:axId val="84026496"/>
+        <c:axId val="84028032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85992576"/>
+        <c:axId val="84026496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84028032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84028032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84026496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>5 input - 64k sample - color</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Colori</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113481600"/>
+        <c:axId val="94966912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113481600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85994112"/>
+        <c:crossAx val="94966912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85994112"/>
+        <c:axId val="94966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +807,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85992576"/>
+        <c:crossAx val="113481600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -337,13 +820,569 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 input - 32k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84489728"/>
+        <c:axId val="84491264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84489728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84491264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84491264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84489728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>5 input - 64k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84524416"/>
+        <c:axId val="85591168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84524416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85591168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85591168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84524416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -414,36 +1453,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$D$2:$D$12</c:f>
+              <c:f>'6 input'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1942</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2746</c:v>
+                  <c:v>2758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3949</c:v>
+                  <c:v>3970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9484</c:v>
+                  <c:v>9540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15948</c:v>
+                  <c:v>16074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25324</c:v>
+                  <c:v>25544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,69 +1532,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$I$2:$I$12</c:f>
+              <c:f>'6 input'!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>363</c:v>
+                  <c:v>363.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>691</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1082</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1865</c:v>
+                  <c:v>1873</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1506</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1482</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200</c:v>
+                  <c:v>2308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2318</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2705</c:v>
+                  <c:v>3069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86694912"/>
-        <c:axId val="86840064"/>
+        <c:axId val="85607936"/>
+        <c:axId val="85609472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86694912"/>
+        <c:axId val="85607936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86840064"/>
+        <c:crossAx val="85609472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86840064"/>
+        <c:axId val="85609472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86694912"/>
+        <c:crossAx val="85607936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -566,963 +1641,20 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>3 input - 16k sample</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo CPU</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'3 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24846</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33468</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 input'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.26856099999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7252000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0780000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.369</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>175.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3146</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5628</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo Cuda</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'3 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24846</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33468</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 input'!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>16.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1064</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="86023552"/>
-        <c:axId val="86049920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="86023552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86049920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86049920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86023552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>4 input - 32k sample</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo CPU</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4808</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13460</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21575</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 input'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo Cuda</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4808</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13460</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21575</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 input'!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>821</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1467</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="86066688"/>
-        <c:axId val="86068224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="86066688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86068224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86068224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86066688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>5 input - 64k sample</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo CPU</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'5 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6739</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10186</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19154</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35893</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 input'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2549</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4085</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo Cuda</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'5 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6739</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10186</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19154</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35893</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 input'!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2437</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="86097280"/>
-        <c:axId val="86508672"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="86097280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86508672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86508672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86097280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>6 input - 128k sample</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo CPU</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'6 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14031</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'6 input'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1948</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2758</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3970</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9540</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo Cuda</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'6 input'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14031</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'6 input'!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>363.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1873</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2308</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2535</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="86525440"/>
-        <c:axId val="86526976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="86525440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86526976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86526976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86525440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -1700,25 +1832,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86568320"/>
-        <c:axId val="86590592"/>
+        <c:axId val="85646720"/>
+        <c:axId val="86185088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86568320"/>
+        <c:axId val="85646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86590592"/>
+        <c:crossAx val="86185088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86590592"/>
+        <c:axId val="86185088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1858,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86568320"/>
+        <c:crossAx val="85646720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,13 +1871,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -1943,25 +2075,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86607360"/>
-        <c:axId val="86608896"/>
+        <c:axId val="86214144"/>
+        <c:axId val="86215680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86607360"/>
+        <c:axId val="86214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86608896"/>
+        <c:crossAx val="86215680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86608896"/>
+        <c:axId val="86215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2101,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86607360"/>
+        <c:crossAx val="86214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1982,13 +2114,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -2198,25 +2330,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86629760"/>
-        <c:axId val="86647936"/>
+        <c:axId val="86236544"/>
+        <c:axId val="86254720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86629760"/>
+        <c:axId val="86236544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86647936"/>
+        <c:crossAx val="86254720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86647936"/>
+        <c:axId val="86254720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2356,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86629760"/>
+        <c:crossAx val="86236544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,13 +2369,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -2417,25 +2549,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86672512"/>
-        <c:axId val="86674048"/>
+        <c:axId val="86283392"/>
+        <c:axId val="86284928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86672512"/>
+        <c:axId val="86283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86674048"/>
+        <c:crossAx val="86284928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86674048"/>
+        <c:axId val="86284928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2575,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86672512"/>
+        <c:crossAx val="86283392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,7 +2588,238 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>6 input - 128k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86309888"/>
+        <c:axId val="86328064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86309888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86328064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86328064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86309888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2466,20 +2829,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324730</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>67421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>543526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>92275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2496,20 +2859,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>436789</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25881</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>131989</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>236297</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2526,20 +2889,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>303959</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>536122</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>514375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2556,20 +2919,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>70502</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>277425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2586,20 +2949,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75826</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380626</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>70691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2616,20 +2979,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464990</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2646,20 +3009,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259523</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>564323</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2676,20 +3039,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>240847</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>52014</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>545647</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>356814</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="15" name="Chart 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2706,20 +3069,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>528263</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>213938</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>31564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="16" name="Chart 15"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2736,20 +3099,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2759,6 +3122,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>379506</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184523</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4283,15 +4676,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4322,8 +4715,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4356,8 +4752,11 @@
       <c r="K2">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4391,8 +4790,11 @@
       <c r="K3">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="2">A3+1</f>
         <v>3</v>
@@ -4426,8 +4828,11 @@
       <c r="K4">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4461,8 +4866,11 @@
       <c r="K5">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4496,8 +4904,11 @@
       <c r="K6">
         <v>5.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4531,8 +4942,11 @@
       <c r="K7">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4566,8 +4980,11 @@
       <c r="K8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4601,8 +5018,11 @@
       <c r="K9">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +5030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5026,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>colors</t>
+  </si>
+  <si>
+    <t>Percent core / cells cpu</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,302 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>2 input percentuale core/celle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>core/cell</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 input'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0724927876460861E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.193335960579323E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5769642718163782E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5412479787649208E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5543674835168778E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.875516790305741E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0568645203683322E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3439114267184328E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="102186368"/>
+        <c:axId val="102302848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102186368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102302848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102302848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102186368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>6 input percentuale core/celle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>core/cell</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7607771706132363E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9775671217037227E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4394646245876234E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1356467820575758E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6616305424394721E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3384154029277709E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0852396766847654E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0473686432280005E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0468095761257491E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="77181312"/>
+        <c:axId val="77243520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77181312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77243520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77243520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77181312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3129,16 +3427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>379506</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>184523</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>16435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3152,6 +3450,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248771</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>128496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3445,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M1" sqref="M1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3460,7 +3818,7 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3491,8 +3849,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3525,8 +3886,12 @@
       <c r="K2">
         <v>1.9650000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2">
+        <f>(D2/C2)/B2</f>
+        <v>3.0724927876460861E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3560,10 +3925,14 @@
       <c r="K3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="2">(D3/C3)/B3</f>
+        <v>6.193335960579323E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="2">A3+1</f>
+        <f t="shared" ref="A4:A9" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -3595,10 +3964,14 @@
       <c r="K4">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>2.5769642718163782E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -3630,10 +4003,14 @@
       <c r="K5">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>9.5412479787649208E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -3665,10 +4042,14 @@
       <c r="K6">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>4.5543674835168778E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -3700,10 +4081,14 @@
       <c r="K7">
         <v>7.133</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>9.875516790305741E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -3735,10 +4120,14 @@
       <c r="K8">
         <v>9.8510000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>4.0568645203683322E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -3770,26 +4159,30 @@
       <c r="K9">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.3439114267184328E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="J10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="B16">
         <v>2</v>
       </c>
@@ -5046,15 +5439,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5085,8 +5478,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5119,8 +5515,12 @@
       <c r="K2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(D2/C2)/B2</f>
+        <v>1.7607771706132363E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5154,10 +5554,14 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="2">(D3/C3)/B3</f>
+        <v>6.9775671217037227E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <f t="shared" ref="A4:A12" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -5189,10 +5593,14 @@
       <c r="K4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>3.4394646245876234E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -5224,10 +5632,14 @@
       <c r="K5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2.1356467820575758E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -5259,10 +5671,14 @@
       <c r="K6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1.6616305424394721E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -5294,10 +5710,14 @@
       <c r="K7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1.3384154029277709E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -5329,10 +5749,14 @@
       <c r="K8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>7.0852396766847654E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -5364,10 +5788,14 @@
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5.0473686432280005E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -5399,8 +5827,12 @@
       <c r="K10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>4.0468095761257491E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -5410,9 +5842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J12">
@@ -5420,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -5428,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="B16">
         <v>6</v>
       </c>
@@ -5446,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="Z58" sqref="Z58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2 input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -63,7 +63,7 @@
     <t>colors</t>
   </si>
   <si>
-    <t>Percent core / cells cpu</t>
+    <t>Percent core</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,11 +324,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84057472"/>
-        <c:axId val="84477056"/>
+        <c:axId val="89587072"/>
+        <c:axId val="95569792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84057472"/>
+        <c:axId val="89587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,14 +358,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84477056"/>
+        <c:crossAx val="95569792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84477056"/>
+        <c:axId val="95569792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +395,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84057472"/>
+        <c:crossAx val="89587072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -413,7 +413,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -597,11 +597,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84026496"/>
-        <c:axId val="84028032"/>
+        <c:axId val="97022720"/>
+        <c:axId val="97024640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84026496"/>
+        <c:axId val="97022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,14 +626,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84028032"/>
+        <c:crossAx val="97024640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84028032"/>
+        <c:axId val="97024640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84026496"/>
+        <c:crossAx val="97022720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,7 +677,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -751,7 +751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$N$2:$N$9</c:f>
+              <c:f>'5 input'!$P$2:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -784,25 +784,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113481600"/>
-        <c:axId val="94966912"/>
+        <c:axId val="97036928"/>
+        <c:axId val="97124736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113481600"/>
+        <c:axId val="97036928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94966912"/>
+        <c:crossAx val="97124736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94966912"/>
+        <c:axId val="97124736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113481600"/>
+        <c:crossAx val="97036928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,7 +823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -902,53 +902,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0724927876460861E-2</c:v>
+                  <c:v>0.86029798054090412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.193335960579323E-3</c:v>
+                  <c:v>0.94138706600805711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5769642718163782E-3</c:v>
+                  <c:v>0.94574588775661073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5412479787649208E-4</c:v>
+                  <c:v>0.93217992752533274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5543674835168778E-4</c:v>
+                  <c:v>0.89721039425282489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.875516790305741E-5</c:v>
+                  <c:v>0.83625876180309011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0568645203683322E-5</c:v>
+                  <c:v>0.83944640655461533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3439114267184328E-5</c:v>
+                  <c:v>0.83386992916934966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102186368"/>
-        <c:axId val="102302848"/>
+        <c:axId val="97153024"/>
+        <c:axId val="97154560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102186368"/>
+        <c:axId val="97153024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102302848"/>
+        <c:crossAx val="97154560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102302848"/>
+        <c:axId val="97154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102186368"/>
+        <c:crossAx val="97153024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,7 +969,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1048,56 +1048,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.7607771706132363E-3</c:v>
+                  <c:v>0.96666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9775671217037227E-4</c:v>
+                  <c:v>0.99290780141843971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4394646245876234E-4</c:v>
+                  <c:v>0.99538106235565815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1356467820575758E-4</c:v>
+                  <c:v>0.99691991786447642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6616305424394721E-4</c:v>
+                  <c:v>0.99564902102973174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3384154029277709E-4</c:v>
+                  <c:v>0.99471032745591936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0852396766847654E-5</c:v>
+                  <c:v>0.99412997903563938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0473686432280005E-5</c:v>
+                  <c:v>0.9921612541993281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0468095761257491E-5</c:v>
+                  <c:v>0.99138740995928598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77181312"/>
-        <c:axId val="77243520"/>
+        <c:axId val="97174656"/>
+        <c:axId val="97176192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77181312"/>
+        <c:axId val="97174656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77243520"/>
+        <c:crossAx val="97176192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77243520"/>
+        <c:axId val="97176192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1105,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77181312"/>
+        <c:crossAx val="97174656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1118,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1334,11 +1334,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84489728"/>
-        <c:axId val="84491264"/>
+        <c:axId val="95591040"/>
+        <c:axId val="95613696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84489728"/>
+        <c:axId val="95591040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,14 +1363,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84491264"/>
+        <c:crossAx val="95613696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84491264"/>
+        <c:axId val="95613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1396,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84489728"/>
+        <c:crossAx val="95591040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,7 +1414,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1594,11 +1594,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84524416"/>
-        <c:axId val="85591168"/>
+        <c:axId val="96560640"/>
+        <c:axId val="96562560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84524416"/>
+        <c:axId val="96560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,14 +1623,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85591168"/>
+        <c:crossAx val="96562560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85591168"/>
+        <c:axId val="96562560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1656,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84524416"/>
+        <c:crossAx val="96560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,7 +1674,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1866,11 +1866,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85607936"/>
-        <c:axId val="85609472"/>
+        <c:axId val="96674176"/>
+        <c:axId val="96676096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85607936"/>
+        <c:axId val="96674176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,14 +1895,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85609472"/>
+        <c:crossAx val="96676096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85609472"/>
+        <c:axId val="96676096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1928,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85607936"/>
+        <c:crossAx val="96674176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,7 +1946,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2130,25 +2130,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85646720"/>
-        <c:axId val="86185088"/>
+        <c:axId val="96693248"/>
+        <c:axId val="96711424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85646720"/>
+        <c:axId val="96693248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86185088"/>
+        <c:crossAx val="96711424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86185088"/>
+        <c:axId val="96711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2156,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85646720"/>
+        <c:crossAx val="96693248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,7 +2169,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2373,25 +2373,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86214144"/>
-        <c:axId val="86215680"/>
+        <c:axId val="96621696"/>
+        <c:axId val="96623232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86214144"/>
+        <c:axId val="96621696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86215680"/>
+        <c:crossAx val="96623232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86215680"/>
+        <c:axId val="96623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2399,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86214144"/>
+        <c:crossAx val="96621696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2412,7 +2412,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2628,25 +2628,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86236544"/>
-        <c:axId val="86254720"/>
+        <c:axId val="96635904"/>
+        <c:axId val="96649984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86236544"/>
+        <c:axId val="96635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86254720"/>
+        <c:crossAx val="96649984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86254720"/>
+        <c:axId val="96649984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2654,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86236544"/>
+        <c:crossAx val="96635904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2667,7 +2667,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2847,25 +2847,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86283392"/>
-        <c:axId val="86284928"/>
+        <c:axId val="96662656"/>
+        <c:axId val="96664192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86283392"/>
+        <c:axId val="96662656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86284928"/>
+        <c:crossAx val="96664192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86284928"/>
+        <c:axId val="96664192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2873,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86283392"/>
+        <c:crossAx val="96662656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2886,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3078,25 +3078,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86309888"/>
-        <c:axId val="86328064"/>
+        <c:axId val="97114752"/>
+        <c:axId val="96993664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86309888"/>
+        <c:axId val="97114752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86328064"/>
+        <c:crossAx val="96993664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86328064"/>
+        <c:axId val="96993664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3104,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86309888"/>
+        <c:crossAx val="97114752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,7 +3117,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3519,7 +3519,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3805,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3816,6 +3816,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3887,8 +3888,8 @@
         <v>1.9650000000000001</v>
       </c>
       <c r="M2">
-        <f>(D2/C2)/B2</f>
-        <v>3.0724927876460861E-2</v>
+        <f>(D2/C2)</f>
+        <v>0.86029798054090412</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3926,8 +3927,8 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="2">(D3/C3)/B3</f>
-        <v>6.193335960579323E-3</v>
+        <f t="shared" ref="M3:M9" si="2">(D3/C3)</f>
+        <v>0.94138706600805711</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3966,7 +3967,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.5769642718163782E-3</v>
+        <v>0.94574588775661073</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4005,7 +4006,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>9.5412479787649208E-4</v>
+        <v>0.93217992752533274</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4044,7 +4045,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>4.5543674835168778E-4</v>
+        <v>0.89721039425282489</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4083,7 +4084,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>9.875516790305741E-5</v>
+        <v>0.83625876180309011</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4122,7 +4123,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>4.0568645203683322E-5</v>
+        <v>0.83944640655461533</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4161,7 +4162,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>2.3439114267184328E-5</v>
+        <v>0.83386992916934966</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4206,10 +4207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4217,7 +4218,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4248,8 +4249,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4282,8 +4286,12 @@
       <c r="K2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(D2/C2)</f>
+        <v>0.94838788952975295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4317,10 +4325,14 @@
       <c r="K3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="2">(D3/C3)</f>
+        <v>0.97031410538676055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="2">A3+1</f>
+        <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -4352,10 +4364,14 @@
       <c r="K4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.96738597351642952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -4387,10 +4403,14 @@
       <c r="K5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.9547460543047348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -4422,10 +4442,14 @@
       <c r="K6">
         <v>8.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.93124287343215506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -4457,10 +4481,14 @@
       <c r="K7">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -4492,10 +4520,14 @@
       <c r="K8">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.93632958801498123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -4527,10 +4559,14 @@
       <c r="K9">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.92943420216147488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -4562,8 +4598,12 @@
       <c r="K10">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.92128642501776825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -4597,8 +4637,12 @@
       <c r="K11">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.91516626115166266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="B16">
         <v>3</v>
       </c>
@@ -4622,15 +4666,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4661,8 +4705,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4695,8 +4742,12 @@
       <c r="K2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <f>(D2/C2)</f>
+        <v>0.96428571428571441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4730,10 +4781,14 @@
       <c r="K3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="2">(D3/C3)</f>
+        <v>0.98305084745762705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="2">A3+1</f>
+        <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -4765,10 +4820,14 @@
       <c r="K4">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.9739130434782608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -4800,10 +4859,14 @@
       <c r="K5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -4835,10 +4898,14 @@
       <c r="K6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -4870,10 +4937,14 @@
       <c r="K7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.94166666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -4905,10 +4976,14 @@
       <c r="K8">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.93623188405797098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -4940,10 +5015,14 @@
       <c r="K9">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.94249201277955275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -4975,8 +5054,12 @@
       <c r="K10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.9642133693450371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -5010,8 +5093,12 @@
       <c r="K11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.9576203740549144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5044,8 +5131,12 @@
       <c r="K12">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.95483586693104205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -5053,7 +5144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="B15">
         <v>4</v>
       </c>
@@ -5069,15 +5160,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5109,10 +5203,13 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5146,10 +5243,14 @@
         <v>2.7</v>
       </c>
       <c r="N2">
+        <f>(D2/C2)</f>
+        <v>0.98156682027649766</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5184,12 +5285,16 @@
         <v>4.58</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N10" si="2">(D3/C3)</f>
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="P3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="2">A3+1</f>
+        <f t="shared" ref="A4:A9" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -5222,12 +5327,16 @@
         <v>7.36</v>
       </c>
       <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.9804241435562806</v>
+      </c>
+      <c r="P4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -5260,12 +5369,16 @@
         <v>5.38</v>
       </c>
       <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.96851248642779586</v>
+      </c>
+      <c r="P5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -5298,12 +5411,16 @@
         <v>5.93</v>
       </c>
       <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.9697920753236563</v>
+      </c>
+      <c r="P6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -5336,12 +5453,16 @@
         <v>6.4</v>
       </c>
       <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.96866585067319466</v>
+      </c>
+      <c r="P7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -5374,12 +5495,16 @@
         <v>10</v>
       </c>
       <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.97723762295748318</v>
+      </c>
+      <c r="P8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -5412,10 +5537,14 @@
         <v>11</v>
       </c>
       <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.97487696273728619</v>
+      </c>
+      <c r="P9">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -5423,7 +5552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5441,11 +5570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -5516,8 +5648,8 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <f>(D2/C2)/B2</f>
-        <v>1.7607771706132363E-3</v>
+        <f>(D2/C2)</f>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5555,8 +5687,8 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="2">(D3/C3)/B3</f>
-        <v>6.9775671217037227E-4</v>
+        <f t="shared" ref="N3:N10" si="2">(D3/C3)</f>
+        <v>0.99290780141843971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5595,7 +5727,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>3.4394646245876234E-4</v>
+        <v>0.99538106235565815</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5634,7 +5766,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>2.1356467820575758E-4</v>
+        <v>0.99691991786447642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5673,7 +5805,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>1.6616305424394721E-4</v>
+        <v>0.99564902102973174</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5712,7 +5844,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>1.3384154029277709E-4</v>
+        <v>0.99471032745591936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5751,7 +5883,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>7.0852396766847654E-5</v>
+        <v>0.99412997903563938</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5790,7 +5922,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>5.0473686432280005E-5</v>
+        <v>0.9921612541993281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5829,7 +5961,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>4.0468095761257491E-5</v>
+        <v>0.99138740995928598</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5878,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView topLeftCell="C41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2 input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -63,7 +63,13 @@
     <t>colors</t>
   </si>
   <si>
-    <t>Percent core</t>
+    <t>Percent core / cells cpu</t>
+  </si>
+  <si>
+    <t>SpeedUP</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,11 +330,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89587072"/>
-        <c:axId val="95569792"/>
+        <c:axId val="50996352"/>
+        <c:axId val="50998656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89587072"/>
+        <c:axId val="50996352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,14 +364,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95569792"/>
+        <c:crossAx val="50998656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95569792"/>
+        <c:axId val="50998656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +401,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89587072"/>
+        <c:crossAx val="50996352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -413,7 +419,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -597,11 +603,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97022720"/>
-        <c:axId val="97024640"/>
+        <c:axId val="51808512"/>
+        <c:axId val="51810688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97022720"/>
+        <c:axId val="51808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,14 +632,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97024640"/>
+        <c:crossAx val="51810688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97024640"/>
+        <c:axId val="51810688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +665,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97022720"/>
+        <c:crossAx val="51808512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,7 +757,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$P$2:$P$9</c:f>
+              <c:f>'5 input'!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -784,25 +790,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97036928"/>
-        <c:axId val="97124736"/>
+        <c:axId val="51835264"/>
+        <c:axId val="51836800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97036928"/>
+        <c:axId val="51835264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97124736"/>
+        <c:crossAx val="51836800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97124736"/>
+        <c:axId val="51836800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +816,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97036928"/>
+        <c:crossAx val="51835264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -902,53 +908,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.86029798054090412</c:v>
+                  <c:v>3.0724927876460861E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94138706600805711</c:v>
+                  <c:v>6.193335960579323E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94574588775661073</c:v>
+                  <c:v>2.5769642718163782E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93217992752533274</c:v>
+                  <c:v>9.5412479787649208E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89721039425282489</c:v>
+                  <c:v>4.5543674835168778E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83625876180309011</c:v>
+                  <c:v>9.875516790305741E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83944640655461533</c:v>
+                  <c:v>4.0568645203683322E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83386992916934966</c:v>
+                  <c:v>2.3439114267184328E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97153024"/>
-        <c:axId val="97154560"/>
+        <c:axId val="51910528"/>
+        <c:axId val="51923968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97153024"/>
+        <c:axId val="51910528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97154560"/>
+        <c:crossAx val="51923968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97154560"/>
+        <c:axId val="51923968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +962,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97153024"/>
+        <c:crossAx val="51910528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,56 +1054,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.96666666666666667</c:v>
+                  <c:v>1.7607771706132363E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99290780141843971</c:v>
+                  <c:v>6.9775671217037227E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99538106235565815</c:v>
+                  <c:v>3.4394646245876234E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99691991786447642</c:v>
+                  <c:v>2.1356467820575758E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99564902102973174</c:v>
+                  <c:v>1.6616305424394721E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99471032745591936</c:v>
+                  <c:v>1.3384154029277709E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99412997903563938</c:v>
+                  <c:v>7.0852396766847654E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9921612541993281</c:v>
+                  <c:v>5.0473686432280005E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99138740995928598</c:v>
+                  <c:v>4.0468095761257491E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97174656"/>
-        <c:axId val="97176192"/>
+        <c:axId val="51956352"/>
+        <c:axId val="51982720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97174656"/>
+        <c:axId val="51956352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97176192"/>
+        <c:crossAx val="51982720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97176192"/>
+        <c:axId val="51982720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1111,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97174656"/>
+        <c:crossAx val="51956352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,6 +1125,799 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 input - 32k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$P$2:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.4137931034482758E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8445475638051048E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10767790262172285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17790262172284646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73619631901840488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6829268292682926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.530075187969925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5607008760951189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1218026796589529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1881390593047039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="99567872"/>
+        <c:axId val="99644544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99567872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99644544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99644544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99567872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>3 input - 16k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.600482717520858E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8859611231101519E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6082089552238816E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2191639344262295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98539325842696635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6762114537444934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8808777429467085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7941729323308273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82113280"/>
+        <c:axId val="82233984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82113280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of Cells</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82233984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82233984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82113280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>5 input - 64k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1879844961240309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2628992628992628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8552380952380956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4539385847797064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3851397409679613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7546163315551908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="105753600"/>
+        <c:axId val="105772928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="105753600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105772928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105772928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105753600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>6 input - 128k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.2599118942731281E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20375722543352601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39871086556169427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0400427122263749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8132807363576595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6361221779548472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1334488734835357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3408284023668635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3232323232323235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="99940992"/>
+        <c:axId val="103917824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99940992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103917824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103917824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99940992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1334,11 +2133,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95591040"/>
-        <c:axId val="95613696"/>
+        <c:axId val="51188096"/>
+        <c:axId val="51190016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95591040"/>
+        <c:axId val="51188096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,14 +2162,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95613696"/>
+        <c:crossAx val="51190016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95613696"/>
+        <c:axId val="51190016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +2195,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95591040"/>
+        <c:crossAx val="51188096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,7 +2213,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1594,11 +2393,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96560640"/>
-        <c:axId val="96562560"/>
+        <c:axId val="51211264"/>
+        <c:axId val="51225728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96560640"/>
+        <c:axId val="51211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,14 +2422,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96562560"/>
+        <c:crossAx val="51225728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96562560"/>
+        <c:axId val="51225728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +2455,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96560640"/>
+        <c:crossAx val="51211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,7 +2473,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1866,11 +2665,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96674176"/>
-        <c:axId val="96676096"/>
+        <c:axId val="51263360"/>
+        <c:axId val="51273728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96674176"/>
+        <c:axId val="51263360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,14 +2694,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96676096"/>
+        <c:crossAx val="51273728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96676096"/>
+        <c:axId val="51273728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +2727,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96674176"/>
+        <c:crossAx val="51263360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,7 +2745,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2130,25 +2929,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96693248"/>
-        <c:axId val="96711424"/>
+        <c:axId val="51303168"/>
+        <c:axId val="51304704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96693248"/>
+        <c:axId val="51303168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96711424"/>
+        <c:crossAx val="51304704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96711424"/>
+        <c:axId val="51304704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2955,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96693248"/>
+        <c:crossAx val="51303168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2373,25 +3172,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96621696"/>
-        <c:axId val="96623232"/>
+        <c:axId val="51329664"/>
+        <c:axId val="51347840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96621696"/>
+        <c:axId val="51329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96623232"/>
+        <c:crossAx val="51347840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96623232"/>
+        <c:axId val="51347840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +3198,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96621696"/>
+        <c:crossAx val="51329664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2628,25 +3427,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96635904"/>
-        <c:axId val="96649984"/>
+        <c:axId val="51376896"/>
+        <c:axId val="51378432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96635904"/>
+        <c:axId val="51376896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96649984"/>
+        <c:crossAx val="51378432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96649984"/>
+        <c:axId val="51378432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +3453,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96635904"/>
+        <c:crossAx val="51376896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,25 +3646,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96662656"/>
-        <c:axId val="96664192"/>
+        <c:axId val="51661440"/>
+        <c:axId val="51687808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96662656"/>
+        <c:axId val="51661440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96664192"/>
+        <c:crossAx val="51687808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96664192"/>
+        <c:axId val="51687808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +3672,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96662656"/>
+        <c:crossAx val="51661440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3078,25 +3877,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97114752"/>
-        <c:axId val="96993664"/>
+        <c:axId val="51704192"/>
+        <c:axId val="51705728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97114752"/>
+        <c:axId val="51704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96993664"/>
+        <c:crossAx val="51705728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96993664"/>
+        <c:axId val="51705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3903,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97114752"/>
+        <c:crossAx val="51704192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3515,11 +4314,131 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434534</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>611002</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>18677</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>229094</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38834</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3803,10 +4722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3816,10 +4735,9 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3853,8 +4771,11 @@
       <c r="M1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3888,11 +4809,15 @@
         <v>1.9650000000000001</v>
       </c>
       <c r="M2">
-        <f>(D2/C2)</f>
-        <v>0.86029798054090412</v>
+        <f>(D2/C2)/B2</f>
+        <v>3.0724927876460861E-2</v>
+      </c>
+      <c r="P2">
+        <f>C2/H2</f>
+        <v>6.8056835545212656E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3927,13 +4852,17 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="2">(D3/C3)</f>
-        <v>0.94138706600805711</v>
+        <f t="shared" ref="M3:M9" si="2">(D3/C3)/B3</f>
+        <v>6.193335960579323E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="3">C3/H3</f>
+        <v>2.866721077331157E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="3">A3+1</f>
+        <f t="shared" ref="A4:A9" si="4">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -3967,12 +4896,16 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>0.94574588775661073</v>
+        <v>2.5769642718163782E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>6.5147769238446951E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -4006,12 +4939,16 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>0.93217992752533274</v>
+        <v>9.5412479787649208E-4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0.1538667088207398</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -4045,12 +4982,16 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>0.89721039425282489</v>
+        <v>4.5543674835168778E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0.30974225575853848</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -4084,12 +5025,16 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>0.83625876180309011</v>
+        <v>9.875516790305741E-5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1.2407536708080913</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -4123,12 +5068,16 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>0.83944640655461533</v>
+        <v>4.0568645203683322E-5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>3.4555212153934947</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -4162,28 +5111,39 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>0.83386992916934966</v>
+        <v>2.3439114267184328E-5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>3.033203125</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="J10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(P2:P9)</f>
+        <v>1.036713454918393</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -4191,7 +5151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>2</v>
       </c>
@@ -4207,10 +5167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4218,7 +5178,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4249,11 +5209,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4286,12 +5246,12 @@
       <c r="K2">
         <v>2.4</v>
       </c>
-      <c r="N2">
-        <f>(D2/C2)</f>
-        <v>0.94838788952975295</v>
+      <c r="P2">
+        <f>C2/H2</f>
+        <v>1.600482717520858E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4325,12 +5285,12 @@
       <c r="K3">
         <v>3.5</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N12" si="2">(D3/C3)</f>
-        <v>0.97031410538676055</v>
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="2">C3/H3</f>
+        <v>5.8859611231101519E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
@@ -4364,12 +5324,12 @@
       <c r="K4">
         <v>3.5</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.96738597351642952</v>
+        <v>7.6082089552238816E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4403,12 +5363,12 @@
       <c r="K5">
         <v>4.5</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>0.9547460543047348</v>
+        <v>0.2191639344262295</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4442,12 +5402,12 @@
       <c r="K6">
         <v>8.52</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.93124287343215506</v>
+        <v>0.98539325842696635</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4481,12 +5441,12 @@
       <c r="K7">
         <v>11.7</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.9555555555555556</v>
+        <v>2.6762114537444934</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4520,12 +5480,12 @@
       <c r="K8">
         <v>10.1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.93632958801498123</v>
+        <v>4.5935483870967744</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4559,12 +5519,12 @@
       <c r="K9">
         <v>9.9499999999999993</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.92943420216147488</v>
+        <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4598,12 +5558,12 @@
       <c r="K10">
         <v>10.7</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.92128642501776825</v>
+        <v>5.8808777429467085</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -4637,12 +5597,21 @@
       <c r="K11">
         <v>11</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.91516626115166266</v>
+        <v>5.7941729323308273</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="12" spans="1:16">
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(P2:P11)</f>
+        <v>2.5800314236930548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -4650,7 +5619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>3</v>
       </c>
@@ -4666,15 +5635,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4705,11 +5674,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4742,12 +5711,12 @@
       <c r="K2">
         <v>2.6</v>
       </c>
-      <c r="N2">
-        <f>(D2/C2)</f>
-        <v>0.96428571428571441</v>
+      <c r="P2">
+        <f>C2/H2</f>
+        <v>2.4137931034482758E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4781,12 +5750,12 @@
       <c r="K3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N12" si="2">(D3/C3)</f>
-        <v>0.98305084745762705</v>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="2">C3/H3</f>
+        <v>6.8445475638051048E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
@@ -4820,12 +5789,12 @@
       <c r="K4">
         <v>3.7</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.9739130434782608</v>
+        <v>0.10767790262172285</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4859,12 +5828,12 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>0.97368421052631582</v>
+        <v>0.17790262172284646</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4898,12 +5867,12 @@
       <c r="K6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.96363636363636362</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4937,12 +5906,12 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.94166666666666665</v>
+        <v>0.73619631901840488</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4976,12 +5945,12 @@
       <c r="K8">
         <v>5.7</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.93623188405797098</v>
+        <v>1.6829268292682926</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5015,12 +5984,12 @@
       <c r="K9">
         <v>5.8</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.94249201277955275</v>
+        <v>3.530075187969925</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5054,12 +6023,12 @@
       <c r="K10">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.9642133693450371</v>
+        <v>5.5607008760951189</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -5093,12 +6062,12 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.9576203740549144</v>
+        <v>6.1218026796589529</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5131,12 +6100,21 @@
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.95483586693104205</v>
+        <v>6.1881390593047039</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="13" spans="1:16">
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(P2:P12)</f>
+        <v>2.234783660631626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -5144,7 +6122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>4</v>
       </c>
@@ -5163,13 +6141,10 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O1" sqref="O1:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -5203,10 +6178,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5243,11 +6218,11 @@
         <v>2.7</v>
       </c>
       <c r="N2">
-        <f>(D2/C2)</f>
-        <v>0.98156682027649766</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <f>C2/H2</f>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5285,11 +6260,11 @@
         <v>4.58</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="2">(D3/C3)</f>
-        <v>0.97674418604651159</v>
+        <v>15</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <f t="shared" ref="P3:P9" si="2">C3/H3</f>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5327,11 +6302,11 @@
         <v>7.36</v>
       </c>
       <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.9804241435562806</v>
-      </c>
-      <c r="P4">
-        <v>17</v>
+        <v>1.1879844961240309</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5369,11 +6344,11 @@
         <v>5.38</v>
       </c>
       <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>0.96851248642779586</v>
-      </c>
-      <c r="P5">
-        <v>16</v>
+        <v>2.2628992628992628</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5411,11 +6386,11 @@
         <v>5.93</v>
       </c>
       <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.9697920753236563</v>
-      </c>
-      <c r="P6">
-        <v>16</v>
+        <v>4.8552380952380956</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5453,11 +6428,11 @@
         <v>6.4</v>
       </c>
       <c r="N7">
+        <v>17</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.96866585067319466</v>
-      </c>
-      <c r="P7">
-        <v>17</v>
+        <v>5.4539385847797064</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5495,11 +6470,11 @@
         <v>10</v>
       </c>
       <c r="N8">
+        <v>19</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.97723762295748318</v>
-      </c>
-      <c r="P8">
-        <v>19</v>
+        <v>8.3851397409679613</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5537,11 +6512,20 @@
         <v>11</v>
       </c>
       <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.97487696273728619</v>
-      </c>
-      <c r="P9">
-        <v>18</v>
+        <v>8.7546163315551908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(P2:P9)</f>
+        <v>3.9256992861677533</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5568,18 +6552,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5613,8 +6594,11 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5648,11 +6632,15 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <f>(D2/C2)</f>
-        <v>0.96666666666666667</v>
+        <f>(D2/C2)/B2</f>
+        <v>1.7607771706132363E-3</v>
+      </c>
+      <c r="P2">
+        <f>C2/H2</f>
+        <v>8.2599118942731281E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5687,13 +6675,17 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="2">(D3/C3)</f>
-        <v>0.99290780141843971</v>
+        <f t="shared" ref="N3:N10" si="2">(D3/C3)/B3</f>
+        <v>6.9775671217037227E-4</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="3">C3/H3</f>
+        <v>0.20375722543352601</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="3">A3+1</f>
+        <f t="shared" ref="A4:A12" si="4">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -5727,12 +6719,16 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>0.99538106235565815</v>
+        <v>3.4394646245876234E-4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0.39871086556169427</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -5766,12 +6762,16 @@
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>0.99691991786447642</v>
+        <v>2.1356467820575758E-4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1.0400427122263749</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -5805,12 +6805,16 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>0.99564902102973174</v>
+        <v>1.6616305424394721E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>1.8132807363576595</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -5844,12 +6848,16 @@
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>0.99471032745591936</v>
+        <v>1.3384154029277709E-4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>2.6361221779548472</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -5883,12 +6891,16 @@
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.99412997903563938</v>
+        <v>7.0852396766847654E-5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>4.1334488734835357</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -5922,12 +6934,16 @@
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.9921612541993281</v>
+        <v>5.0473686432280005E-5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>6.3408284023668635</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -5961,10 +6977,14 @@
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.99138740995928598</v>
+        <v>4.0468095761257491E-5</v>
+      </c>
+      <c r="P10">
+        <f>C10/H10</f>
+        <v>8.3232323232323235</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -5973,10 +6993,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(P2:P10)</f>
+        <v>2.7746691595066175</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="J12">
@@ -5984,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -5992,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>6</v>
       </c>
@@ -6010,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN33"/>
   <sheetViews>
-    <sheetView topLeftCell="C41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/bistable/tempi simulazione.xlsx
+++ b/docs/bistable/tempi simulazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15390" windowHeight="8055" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2 input" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="4 input" sheetId="3" r:id="rId3"/>
     <sheet name="5 input" sheetId="4" r:id="rId4"/>
     <sheet name="6 input" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="6" r:id="rId6"/>
+    <sheet name="Speedup" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>Tempo CPU</t>
   </si>
@@ -70,6 +71,45 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>float core</t>
+  </si>
+  <si>
+    <t>float tot</t>
+  </si>
+  <si>
+    <t>colori float</t>
+  </si>
+  <si>
+    <t>float total</t>
+  </si>
+  <si>
+    <t>colori</t>
+  </si>
+  <si>
+    <t>Float core</t>
+  </si>
+  <si>
+    <t>Float total</t>
+  </si>
+  <si>
+    <t>Colori</t>
+  </si>
+  <si>
+    <t>Comparidon total time - Double</t>
+  </si>
+  <si>
+    <t>Altri Grafici</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Double vs float</t>
   </si>
 </sst>
 </file>
@@ -291,7 +331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 input'!$H$2:$H$12</c:f>
+              <c:f>'3 input'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -330,11 +370,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50996352"/>
-        <c:axId val="50998656"/>
+        <c:axId val="78922880"/>
+        <c:axId val="78925184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50996352"/>
+        <c:axId val="78922880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,14 +404,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50998656"/>
+        <c:crossAx val="78925184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50998656"/>
+        <c:axId val="78925184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +441,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50996352"/>
+        <c:crossAx val="78922880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -419,7 +459,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -570,7 +610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$H$2:$H$12</c:f>
+              <c:f>'2 input'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -603,11 +643,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51808512"/>
-        <c:axId val="51810688"/>
+        <c:axId val="83138816"/>
+        <c:axId val="83140992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51808512"/>
+        <c:axId val="83138816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,14 +672,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51810688"/>
+        <c:crossAx val="83140992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51810688"/>
+        <c:axId val="83140992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +705,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51808512"/>
+        <c:crossAx val="83138816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -683,7 +723,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -757,7 +797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$N$2:$N$9</c:f>
+              <c:f>'5 input'!$P$2:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -790,25 +830,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51835264"/>
-        <c:axId val="51836800"/>
+        <c:axId val="83493248"/>
+        <c:axId val="83494784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51835264"/>
+        <c:axId val="83493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51836800"/>
+        <c:crossAx val="83494784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51836800"/>
+        <c:axId val="83494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +856,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51835264"/>
+        <c:crossAx val="83493248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -829,7 +869,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -903,7 +943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$M$2:$M$9</c:f>
+              <c:f>'2 input'!$O$2:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -936,25 +976,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51910528"/>
-        <c:axId val="51923968"/>
+        <c:axId val="83507072"/>
+        <c:axId val="83528704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51910528"/>
+        <c:axId val="83507072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51923968"/>
+        <c:crossAx val="83528704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51923968"/>
+        <c:axId val="83528704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +1002,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51910528"/>
+        <c:crossAx val="83507072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,7 +1015,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1049,61 +1089,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$N$2:$N$10</c:f>
+              <c:f>'6 input'!$Q$2:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.7607771706132363E-3</c:v>
+                  <c:v>0.96666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9775671217037227E-4</c:v>
+                  <c:v>0.99290780141843971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4394646245876234E-4</c:v>
+                  <c:v>0.99538106235565815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1356467820575758E-4</c:v>
+                  <c:v>0.99691991786447642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6616305424394721E-4</c:v>
+                  <c:v>0.99564902102973174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3384154029277709E-4</c:v>
+                  <c:v>0.99471032745591936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0852396766847654E-5</c:v>
+                  <c:v>0.99412997903563938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0473686432280005E-5</c:v>
+                  <c:v>0.9921612541993281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0468095761257491E-5</c:v>
+                  <c:v>0.99138740995928598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51956352"/>
-        <c:axId val="51982720"/>
+        <c:axId val="83556992"/>
+        <c:axId val="83456384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51956352"/>
+        <c:axId val="83556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51982720"/>
+        <c:crossAx val="83456384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51982720"/>
+        <c:axId val="83456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1151,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51956352"/>
+        <c:crossAx val="83556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1124,7 +1164,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1144,8 +1184,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>4 input - 32k sample</a:t>
+              <a:t> input - 8k sample</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1161,157 +1205,176 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Speedup</c:v>
+            <c:v>Tempo CPU</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:f>'2 input'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1105</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2609</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4808</c:v>
+                  <c:v>8468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8778</c:v>
+                  <c:v>20692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13460</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21575</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31875</c:v>
+                  <c:v>35576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$P$2:$P$12</c:f>
+              <c:f>'2 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.4137931034482758E-2</c:v>
+                  <c:v>4.0939000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8445475638051048E-2</c:v>
+                  <c:v>0.396789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10767790262172285</c:v>
+                  <c:v>1.2346060000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17790262172284646</c:v>
+                  <c:v>4.5367369999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>10.496433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73619631901840488</c:v>
+                  <c:v>101.051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6829268292682926</c:v>
+                  <c:v>934.80499999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.530075187969925</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5607008760951189</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1218026796589529</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.1881390593047039</c:v>
+                  <c:v>2590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 input'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99567872"/>
-        <c:axId val="99644544"/>
+        <c:axId val="104198912"/>
+        <c:axId val="108416000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99567872"/>
+        <c:axId val="104198912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Number of Cells</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99644544"/>
+        <c:crossAx val="108416000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99644544"/>
+        <c:axId val="108416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Simulation Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99567872"/>
+        <c:crossAx val="104198912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,11 +1385,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -1409,117 +1467,157 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 input'!$P$2:$P$11</c:f>
+              <c:f>'3 input'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.25469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.600482717520858E-2</c:v>
+                  <c:v>15.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8859611231101519E-2</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6082089552238816E-2</c:v>
+                  <c:v>49.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2191639344262295</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98539325842696635</c:v>
+                  <c:v>148.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6762114537444934</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5935483870967744</c:v>
+                  <c:v>243.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>259.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8808777429467085</c:v>
+                  <c:v>358.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7941729323308273</c:v>
+                  <c:v>373.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82113280"/>
-        <c:axId val="82233984"/>
+        <c:axId val="109026304"/>
+        <c:axId val="113535232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82113280"/>
+        <c:axId val="109026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> of Cells</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82233984"/>
+        <c:crossAx val="113535232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82233984"/>
+        <c:axId val="113535232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Simulation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82113280"/>
+        <c:crossAx val="109026304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,20 +1628,270 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 input - 32k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="114717440"/>
+        <c:axId val="114718976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="114717440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114718976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114718976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114717440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -1611,102 +1959,139 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$P$2:$P$9</c:f>
+              <c:f>'5 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4777777777777778</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1879844961240309</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2628992628992628</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8552380952380956</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4539385847797064</c:v>
+                  <c:v>3957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3851397409679613</c:v>
+                  <c:v>12021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7546163315551908</c:v>
+                  <c:v>20799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>378.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105753600"/>
-        <c:axId val="105772928"/>
+        <c:axId val="114863488"/>
+        <c:axId val="114914816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105753600"/>
+        <c:axId val="114863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Number of Cells</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105772928"/>
+        <c:crossAx val="114914816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105772928"/>
+        <c:axId val="114914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Simulation Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105753600"/>
+        <c:crossAx val="114863488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,20 +2102,15 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -1796,110 +2176,162 @@
                 <c:pt idx="8">
                   <c:v>24498</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$P$2:$P$10</c:f>
+              <c:f>'6 input'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.2599118942731281E-2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20375722543352601</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39871086556169427</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0400427122263749</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8132807363576595</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6361221779548472</c:v>
+                  <c:v>3949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1334488734835357</c:v>
+                  <c:v>9484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3408284023668635</c:v>
+                  <c:v>15948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3232323232323235</c:v>
+                  <c:v>25324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Cuda</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>325.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1711.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1931.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1332.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1900.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2262.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99940992"/>
-        <c:axId val="103917824"/>
+        <c:axId val="115223552"/>
+        <c:axId val="115313664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99940992"/>
+        <c:axId val="115223552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Number of Cells</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103917824"/>
+        <c:crossAx val="115313664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103917824"/>
+        <c:axId val="115313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Simulation time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99940992"/>
+        <c:crossAx val="115223552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1910,14 +2342,232 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> input - 8k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Double</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 input'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.9836460000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.63300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 input'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="88400640"/>
+        <c:axId val="88402176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88400640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88402176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88402176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88400640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2091,7 +2741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$H$2:$H$12</c:f>
+              <c:f>'4 input'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2133,11 +2783,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51188096"/>
-        <c:axId val="51190016"/>
+        <c:axId val="81011072"/>
+        <c:axId val="81012992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51188096"/>
+        <c:axId val="81011072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,14 +2812,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51190016"/>
+        <c:crossAx val="81012992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51190016"/>
+        <c:axId val="81012992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2845,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51188096"/>
+        <c:crossAx val="81011072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2213,7 +2863,1957 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>3 input - 16k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95841280"/>
+        <c:axId val="95920896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95841280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95920896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95920896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95841280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 input - 32k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Double</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="99206656"/>
+        <c:axId val="99208192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99206656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99208192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99208192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99206656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>5 input - 64k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Double</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>378.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="108576768"/>
+        <c:axId val="108578304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108576768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108578304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108578304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108576768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>6 input - 128k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Double</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>325.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1711.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1931.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1332.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1900.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2262.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="108930944"/>
+        <c:axId val="108932480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108930944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108932480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108932480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108930944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> input - 8k sample </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 input'!$S$2:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8056835545212656E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.866721077331157E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5147769238446951E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1538667088207398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30974225575853848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2407536708080913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4555212153934947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.033203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113330816"/>
+        <c:axId val="113361664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113330816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113361664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113361664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113330816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>3 input - 16k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 input'!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.600482717520858E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8859611231101519E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6082089552238816E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2191639344262295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98539325842696635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6762114537444934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8808777429467085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7941729323308273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="102768000"/>
+        <c:axId val="115216768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102768000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of Cells</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115216768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115216768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102768000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 input - 32k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 input'!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.4137931034482758E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8445475638051048E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10767790262172285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17790262172284646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73619631901840488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6829268292682926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.530075187969925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5607008760951189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1218026796589529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1881390593047039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="115009024"/>
+        <c:axId val="115198592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115009024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115198592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115198592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115009024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>5 input - 64k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 input'!$R$2:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1879844961240309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2628992628992628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8552380952380956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4539385847797064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3851397409679613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7546163315551908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86207488"/>
+        <c:axId val="95698944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86207488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95698944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95698944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86207488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>6 input - 128k sample</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo CPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6 input'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 input'!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2599118942731281E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20375722543352601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39871086556169427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0400427122263749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8132807363576595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6361221779548472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1334488734835357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3408284023668635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3232323232323235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.949203486624587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82045184"/>
+        <c:axId val="101395840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82045184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of Cells</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101395840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101395840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Simulation time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82045184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2360,7 +4960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$H$2:$H$12</c:f>
+              <c:f>'5 input'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2393,11 +4993,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51211264"/>
-        <c:axId val="51225728"/>
+        <c:axId val="81034240"/>
+        <c:axId val="81044608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51211264"/>
+        <c:axId val="81034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +5022,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51225728"/>
+        <c:crossAx val="81044608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51225728"/>
+        <c:axId val="81044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +5055,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51211264"/>
+        <c:crossAx val="81034240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,7 +5073,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2545,6 +5145,9 @@
                 <c:pt idx="8">
                   <c:v>24498</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2580,6 +5183,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,12 +5230,15 @@
                 <c:pt idx="8">
                   <c:v>24498</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$H$2:$H$12</c:f>
+              <c:f>'6 input'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2660,16 +5269,19 @@
                 <c:pt idx="8">
                   <c:v>3069</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51263360"/>
-        <c:axId val="51273728"/>
+        <c:axId val="81872768"/>
+        <c:axId val="81883136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51263360"/>
+        <c:axId val="81872768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,14 +5306,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51273728"/>
+        <c:crossAx val="81883136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51273728"/>
+        <c:axId val="81883136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +5339,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51263360"/>
+        <c:crossAx val="81872768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2745,7 +5357,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2896,7 +5508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 input'!$I$2:$I$12</c:f>
+              <c:f>'2 input'!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2929,25 +5541,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51303168"/>
-        <c:axId val="51304704"/>
+        <c:axId val="81920768"/>
+        <c:axId val="81922304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51303168"/>
+        <c:axId val="81920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51304704"/>
+        <c:crossAx val="81922304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51304704"/>
+        <c:axId val="81922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,7 +5567,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51303168"/>
+        <c:crossAx val="81920768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2968,7 +5580,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3133,7 +5745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 input'!$I$2:$I$12</c:f>
+              <c:f>'3 input'!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3172,25 +5784,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51329664"/>
-        <c:axId val="51347840"/>
+        <c:axId val="81939072"/>
+        <c:axId val="81957248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51329664"/>
+        <c:axId val="81939072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51347840"/>
+        <c:crossAx val="81957248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51347840"/>
+        <c:axId val="81957248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +5810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51329664"/>
+        <c:crossAx val="81939072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3211,7 +5823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3385,7 +5997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 input'!$I$2:$I$12</c:f>
+              <c:f>'4 input'!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3427,25 +6039,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51376896"/>
-        <c:axId val="51378432"/>
+        <c:axId val="83034880"/>
+        <c:axId val="83036416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51376896"/>
+        <c:axId val="83034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51378432"/>
+        <c:crossAx val="83036416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51378432"/>
+        <c:axId val="83036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,7 +6065,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51376896"/>
+        <c:crossAx val="83034880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3466,7 +6078,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3613,7 +6225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5 input'!$I$2:$I$12</c:f>
+              <c:f>'5 input'!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3646,25 +6258,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51661440"/>
-        <c:axId val="51687808"/>
+        <c:axId val="83053184"/>
+        <c:axId val="83087744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51661440"/>
+        <c:axId val="83053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51687808"/>
+        <c:crossAx val="83087744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51687808"/>
+        <c:axId val="83087744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +6284,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51661440"/>
+        <c:crossAx val="83053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3685,7 +6297,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3757,6 +6369,9 @@
                 <c:pt idx="8">
                   <c:v>24498</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3836,12 +6451,15 @@
                 <c:pt idx="8">
                   <c:v>24498</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>29000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6 input'!$I$2:$I$12</c:f>
+              <c:f>'6 input'!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3872,30 +6490,33 @@
                 <c:pt idx="8">
                   <c:v>2705</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51704192"/>
-        <c:axId val="51705728"/>
+        <c:axId val="83100032"/>
+        <c:axId val="83101568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51704192"/>
+        <c:axId val="83100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51705728"/>
+        <c:crossAx val="83101568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51705728"/>
+        <c:axId val="83101568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +6524,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51704192"/>
+        <c:crossAx val="83100032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3916,7 +6537,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3928,14 +6549,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>324730</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>67421</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>48722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>543526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>92275</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3958,14 +6579,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>25881</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>236297</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>64074</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3988,14 +6609,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>303959</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>514375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>64074</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4018,14 +6639,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>70502</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>277425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96292</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4048,14 +6669,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>75826</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>184991</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380626</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>70691</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222774</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4076,16 +6697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464990</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175466</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369739</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160190</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>61166</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528430</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4106,16 +6727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259523</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165941</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45210</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>564323</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51641</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>192158</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4136,16 +6757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>52014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165941</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>337765</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>356814</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51641</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>484713</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4166,16 +6787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>528263</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142129</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>99638</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>213938</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>31564</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>246585</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4198,14 +6819,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106964</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>243428</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4227,15 +6848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>130734</xdr:rowOff>
+      <xdr:colOff>50894</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>379506</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>16435</xdr:rowOff>
+      <xdr:colOff>355694</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>87873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4257,15 +6878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>536482</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>183496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>248771</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184524</xdr:rowOff>
+      <xdr:colOff>224959</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>65462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4287,15 +6908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:colOff>424423</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>136712</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>128496</xdr:rowOff>
+      <xdr:colOff>112900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4316,20 +6937,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123451</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>589845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>434534</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>136912</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270399</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="20" name="Chart 19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4346,20 +6967,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417364</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>604132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>611002</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>136913</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>576055</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvPr id="26" name="Chart 25"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4376,20 +6997,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>92835</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>594607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>229094</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>118236</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>239783</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvPr id="27" name="Chart 26"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4406,20 +7027,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>385390</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>618420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>38834</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>118236</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>532338</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>119104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvPr id="28" name="Chart 27"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4429,6 +7050,341 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>147263</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>642233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>294210</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>147522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109163</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>99308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256111</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>52429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403076</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>113595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561767</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66716</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78547</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>225495</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57191</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>371102</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>127883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>518050</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>81004</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>132975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>279922</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>109422</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312406</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556853</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74026</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208158</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487466</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58814</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>326278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>544063</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205391</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>412409</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>73708</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36188</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4722,10 +7678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4733,11 +7689,11 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4757,25 +7713,34 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4796,28 +7761,37 @@
         <v>1.95</v>
       </c>
       <c r="H2">
+        <v>6.7640000000000002</v>
+      </c>
+      <c r="I2">
+        <v>6.75</v>
+      </c>
+      <c r="J2">
         <v>6.9922440000000003</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>6.9836460000000002</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>8.5980000000001056E-3</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1.9650000000000001</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>(D2/C2)/B2</f>
         <v>3.0724927876460861E-2</v>
       </c>
-      <c r="P2">
-        <f>C2/H2</f>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <f>C2/J2</f>
         <v>6.8056835545212656E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -4839,28 +7813,37 @@
         <v>3.0185</v>
       </c>
       <c r="H3">
+        <v>13.84</v>
+      </c>
+      <c r="I3">
+        <v>13.81</v>
+      </c>
+      <c r="J3">
         <v>14.702999999999999</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>14.678000000000001</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">H3-I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="1">J3-K3</f>
         <v>2.4999999999998579E-2</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M9" si="2">(D3/C3)/B3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O9" si="2">(D3/C3)/B3</f>
         <v>6.193335960579323E-3</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P9" si="3">C3/H3</f>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S9" si="3">C3/J3</f>
         <v>2.866721077331157E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="4">A3+1</f>
         <v>3</v>
@@ -4882,28 +7865,37 @@
         <v>3.3661249999999998</v>
       </c>
       <c r="H4">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I4">
+        <v>18.68</v>
+      </c>
+      <c r="J4">
         <v>20.038</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>19.95</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>8.8000000000000966E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3.28</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f t="shared" si="2"/>
         <v>2.5769642718163782E-3</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="3"/>
         <v>6.5147769238446951E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4925,28 +7917,37 @@
         <v>4.6784999999999997</v>
       </c>
       <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>28.8</v>
+      </c>
+      <c r="J5">
         <v>31.63</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>31.14</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>0.48999999999999844</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>4.38</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f t="shared" si="2"/>
         <v>9.5412479787649208E-4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="3"/>
         <v>0.1538667088207398</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4968,28 +7969,37 @@
         <v>5.077</v>
       </c>
       <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J6">
         <v>37.770000000000003</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>36.322000000000003</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>1.4480000000000004</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>5.08</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>4.5543674835168778E-4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="3"/>
         <v>0.30974225575853848</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5011,28 +8021,37 @@
         <v>7.14</v>
       </c>
       <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>65.5</v>
+      </c>
+      <c r="J7">
         <v>97.39</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>70.314999999999998</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>27.075000000000003</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>7.133</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>9.875516790305741E-5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
         <v>1.2407536708080913</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5054,28 +8073,37 @@
         <v>9.8862000000000005</v>
       </c>
       <c r="H8">
+        <v>284</v>
+      </c>
+      <c r="I8">
+        <v>116</v>
+      </c>
+      <c r="J8">
         <v>322.26600000000002</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>137.63300000000001</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>184.63300000000001</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>9.8510000000000009</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>4.0568645203683322E-5</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>19</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="3"/>
         <v>3.4555212153934947</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5097,53 +8125,46 @@
         <v>10.16</v>
       </c>
       <c r="H9">
+        <v>565</v>
+      </c>
+      <c r="I9">
+        <v>170.32</v>
+      </c>
+      <c r="J9">
         <v>1024</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>224</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>10.220000000000001</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>2.3439114267184328E-5</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
+        <v>21</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
         <v>3.033203125</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
+    <row r="10" spans="1:19">
+      <c r="R10" t="s">
         <v>16</v>
       </c>
-      <c r="P10">
-        <f>AVERAGE(P2:P9)</f>
+      <c r="S10">
+        <f>AVERAGE(S2:S9)</f>
         <v>1.036713454918393</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +8172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="B16">
         <v>2</v>
       </c>
@@ -5167,10 +8188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5178,7 +8199,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5198,22 +8219,31 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5234,24 +8264,33 @@
         <v>2.42</v>
       </c>
       <c r="H2">
+        <v>15.87</v>
+      </c>
+      <c r="I2">
+        <v>15.85</v>
+      </c>
+      <c r="J2">
         <v>16.78</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>16.760000000000002</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2.4</v>
       </c>
       <c r="P2">
-        <f>C2/H2</f>
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <f>C2/J2</f>
         <v>1.600482717520858E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5273,24 +8312,33 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="H3">
+        <v>42.6</v>
+      </c>
+      <c r="I3">
+        <v>42.5</v>
+      </c>
+      <c r="J3">
         <v>46.3</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>46.2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="1">H3-I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="1">J3-K3</f>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3.5</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P11" si="2">C3/H3</f>
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="2">C3/J3</f>
         <v>5.8859611231101519E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
@@ -5312,24 +8360,33 @@
         <v>3.5594999999999999</v>
       </c>
       <c r="H4">
+        <v>49.5</v>
+      </c>
+      <c r="I4">
+        <v>49.37</v>
+      </c>
+      <c r="J4">
         <v>53.6</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>53.4</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3.5</v>
       </c>
       <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>7.6082089552238816E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5351,24 +8408,33 @@
         <v>4.4770000000000003</v>
       </c>
       <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>54.6</v>
+      </c>
+      <c r="J5">
         <v>61</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>60</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>4.5</v>
       </c>
       <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>0.2191639344262295</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5390,24 +8456,33 @@
         <v>8</v>
       </c>
       <c r="H6">
+        <v>163</v>
+      </c>
+      <c r="I6">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="J6">
         <v>178</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>161</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>8.52</v>
       </c>
       <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>0.98539325842696635</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5429,24 +8504,33 @@
         <v>12</v>
       </c>
       <c r="H7">
+        <v>373</v>
+      </c>
+      <c r="I7">
+        <v>306</v>
+      </c>
+      <c r="J7">
         <v>454</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>346</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>11.7</v>
       </c>
       <c r="P7">
+        <v>23</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>2.6762114537444934</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5468,24 +8552,33 @@
         <v>10</v>
       </c>
       <c r="H8">
+        <v>476</v>
+      </c>
+      <c r="I8">
+        <v>243.6</v>
+      </c>
+      <c r="J8">
         <v>465</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>287</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>10.1</v>
       </c>
       <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>4.5935483870967744</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5507,24 +8600,33 @@
         <v>10</v>
       </c>
       <c r="H9">
+        <v>524</v>
+      </c>
+      <c r="I9">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="J9">
         <v>572</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>309</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>9.9499999999999993</v>
       </c>
       <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5546,24 +8648,33 @@
         <v>10</v>
       </c>
       <c r="H10">
+        <v>887</v>
+      </c>
+      <c r="I10">
+        <v>358.7</v>
+      </c>
+      <c r="J10">
         <v>957</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>421</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>536</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>10.7</v>
       </c>
       <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="2"/>
         <v>5.8808777429467085</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -5585,33 +8696,42 @@
         <v>12</v>
       </c>
       <c r="H11">
+        <v>987</v>
+      </c>
+      <c r="I11">
+        <v>373.46</v>
+      </c>
+      <c r="J11">
         <v>1064</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>449</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>11</v>
       </c>
       <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
         <v>5.7941729323308273</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="O12" t="s">
+    <row r="12" spans="1:18">
+      <c r="Q12" t="s">
         <v>16</v>
       </c>
-      <c r="P12">
-        <f>AVERAGE(P2:P11)</f>
+      <c r="R12">
+        <f>AVERAGE(R2:R11)</f>
         <v>2.5800314236930548</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -5619,7 +8739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>3</v>
       </c>
@@ -5635,15 +8755,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5663,22 +8783,31 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5699,24 +8828,33 @@
         <v>2.6</v>
       </c>
       <c r="H2">
+        <v>32.47</v>
+      </c>
+      <c r="I2">
+        <v>32.4</v>
+      </c>
+      <c r="J2">
         <v>34.799999999999997</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>34.700000000000003</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2.6</v>
       </c>
       <c r="P2">
-        <f>C2/H2</f>
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <f>C2/J2</f>
         <v>2.4137931034482758E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5738,24 +8876,33 @@
         <v>3.2</v>
       </c>
       <c r="H3">
+        <v>78.2</v>
+      </c>
+      <c r="I3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J3">
         <v>86.2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>86.1</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">H3-I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="1">J3-K3</f>
         <v>0.10000000000000853</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P12" si="2">C3/H3</f>
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R12" si="2">C3/J3</f>
         <v>6.8445475638051048E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="3">A3+1</f>
         <v>3</v>
@@ -5777,24 +8924,33 @@
         <v>3.7</v>
       </c>
       <c r="H4">
+        <v>97.5</v>
+      </c>
+      <c r="I4">
+        <v>97.2</v>
+      </c>
+      <c r="J4">
         <v>106.8</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>106.5</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3.7</v>
       </c>
       <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>0.10767790262172285</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5816,24 +8972,33 @@
         <v>4.05</v>
       </c>
       <c r="H5">
+        <v>98.2</v>
+      </c>
+      <c r="I5">
+        <v>97.7</v>
+      </c>
+      <c r="J5">
         <v>106.8</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>106.3</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>4</v>
       </c>
       <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>0.17790262172284646</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5855,24 +9020,33 @@
         <v>4.5</v>
       </c>
       <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>127.5</v>
+      </c>
+      <c r="J6">
         <v>143</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>140</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4.5999999999999996</v>
       </c>
       <c r="P6">
+        <v>16</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5894,24 +9068,33 @@
         <v>5</v>
       </c>
       <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>141.6</v>
+      </c>
+      <c r="J7">
         <v>163</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>154</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>5</v>
       </c>
       <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>0.73619631901840488</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5933,24 +9116,33 @@
         <v>5.7</v>
       </c>
       <c r="H8">
+        <v>184</v>
+      </c>
+      <c r="I8">
+        <v>157</v>
+      </c>
+      <c r="J8">
         <v>205</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>179</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>5.7</v>
       </c>
       <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>1.6829268292682926</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5972,24 +9164,33 @@
         <v>6</v>
       </c>
       <c r="H9">
+        <v>239</v>
+      </c>
+      <c r="I9">
+        <v>174</v>
+      </c>
+      <c r="J9">
         <v>266</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>200</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>5.8</v>
       </c>
       <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>3.530075187969925</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6011,24 +9212,33 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H10">
+        <v>682</v>
+      </c>
+      <c r="I10">
+        <v>493</v>
+      </c>
+      <c r="J10">
         <v>799</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>587</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>11</v>
       </c>
       <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="2"/>
         <v>5.5607008760951189</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -6050,26 +9260,35 @@
         <v>10</v>
       </c>
       <c r="H11">
+        <v>686.8</v>
+      </c>
+      <c r="I11">
+        <v>440.8</v>
+      </c>
+      <c r="J11">
         <v>821</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>530</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>10</v>
       </c>
       <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
         <v>6.1218026796589529</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>31875</v>
@@ -6088,33 +9307,42 @@
         <v>11</v>
       </c>
       <c r="H12">
+        <v>1160</v>
+      </c>
+      <c r="I12">
+        <v>674</v>
+      </c>
+      <c r="J12">
         <v>1467</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>802</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>11</v>
       </c>
       <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="2"/>
         <v>6.1881390593047039</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="O13" t="s">
+    <row r="13" spans="1:18">
+      <c r="Q13" t="s">
         <v>16</v>
       </c>
-      <c r="P13">
-        <f>AVERAGE(P2:P12)</f>
+      <c r="R13">
+        <f>AVERAGE(R2:R12)</f>
         <v>2.234783660631626</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -6122,7 +9350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>4</v>
       </c>
@@ -6138,15 +9366,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6166,25 +9394,34 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6205,27 +9442,36 @@
         <v>2.74</v>
       </c>
       <c r="H2">
+        <v>65.2</v>
+      </c>
+      <c r="I2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J2">
         <v>77.5</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>77.400000000000006</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2.7</v>
       </c>
-      <c r="N2">
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <f>C2/H2</f>
+      <c r="R2">
+        <f>C2/J2</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -6247,27 +9493,36 @@
         <v>4.5</v>
       </c>
       <c r="H3">
+        <v>240.6</v>
+      </c>
+      <c r="I3">
+        <v>237.3</v>
+      </c>
+      <c r="J3">
         <v>270</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>266</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="1">H3-I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="1">J3-K3</f>
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>4.58</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>15</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P9" si="2">C3/H3</f>
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R9" si="2">C3/J3</f>
         <v>0.4777777777777778</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="3">A3+1</f>
         <v>3</v>
@@ -6289,27 +9544,36 @@
         <v>7.54</v>
       </c>
       <c r="H4">
+        <v>475</v>
+      </c>
+      <c r="I4">
+        <v>459.5</v>
+      </c>
+      <c r="J4">
         <v>516</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>500</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>7.36</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17</v>
       </c>
       <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>1.1879844961240309</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -6331,27 +9595,36 @@
         <v>5.3</v>
       </c>
       <c r="H5">
+        <v>355.7</v>
+      </c>
+      <c r="I5">
+        <v>320</v>
+      </c>
+      <c r="J5">
         <v>407</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>371</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>5.38</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>16</v>
       </c>
       <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>2.2628992628992628</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -6373,27 +9646,36 @@
         <v>6</v>
       </c>
       <c r="H6">
+        <v>470</v>
+      </c>
+      <c r="I6">
+        <v>378.2</v>
+      </c>
+      <c r="J6">
         <v>525</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>433</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>5.93</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16</v>
       </c>
       <c r="P6">
+        <v>16</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>4.8552380952380956</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6415,27 +9697,36 @@
         <v>6.4</v>
       </c>
       <c r="H7">
+        <v>606</v>
+      </c>
+      <c r="I7">
+        <v>456.4</v>
+      </c>
+      <c r="J7">
         <v>749</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>538</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>6.4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17</v>
       </c>
       <c r="P7">
+        <v>17</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>5.4539385847797064</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -6457,27 +9748,36 @@
         <v>10</v>
       </c>
       <c r="H8">
+        <v>1239</v>
+      </c>
+      <c r="I8">
+        <v>915</v>
+      </c>
+      <c r="J8">
         <v>1467</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1133</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19</v>
       </c>
       <c r="P8">
+        <v>19</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>8.3851397409679613</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -6499,36 +9799,45 @@
         <v>11</v>
       </c>
       <c r="H9">
+        <v>1889</v>
+      </c>
+      <c r="I9">
+        <v>1280</v>
+      </c>
+      <c r="J9">
         <v>2437</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1577</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>11</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>18</v>
       </c>
       <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>8.7546163315551908</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="O10" t="s">
+    <row r="10" spans="1:18">
+      <c r="Q10" t="s">
         <v>16</v>
       </c>
-      <c r="P10">
-        <f>AVERAGE(P2:P9)</f>
+      <c r="R10">
+        <f>AVERAGE(R2:R9)</f>
         <v>3.9256992861677533</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -6536,7 +9845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>5</v>
       </c>
@@ -6552,15 +9861,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6580,25 +9889,34 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6619,28 +9937,37 @@
         <v>3</v>
       </c>
       <c r="H2">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="I2">
+        <v>325.2</v>
+      </c>
+      <c r="J2">
         <v>363.2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>363</v>
       </c>
-      <c r="J2">
-        <f>H2-I2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>0.19999999999998863</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>3.5</v>
       </c>
-      <c r="N2">
-        <f>(D2/C2)/B2</f>
-        <v>1.7607771706132363E-3</v>
-      </c>
       <c r="P2">
-        <f>C2/H2</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>(D2/C2)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="S2">
+        <f>C2/J2</f>
         <v>8.2599118942731281E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -6662,28 +9989,37 @@
         <v>5</v>
       </c>
       <c r="H3">
+        <v>614.1</v>
+      </c>
+      <c r="I3">
+        <v>613.29999999999995</v>
+      </c>
+      <c r="J3">
         <v>692</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>691</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">H3-I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="1">J3-K3</f>
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N10" si="2">(D3/C3)/B3</f>
-        <v>6.9775671217037227E-4</v>
-      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P9" si="3">C3/H3</f>
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">(D3/C3)</f>
+        <v>0.99290780141843971</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S9" si="3">C3/J3</f>
         <v>0.20375722543352601</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ref="A4:A12" si="4">A3+1</f>
         <v>3</v>
@@ -6705,28 +10041,37 @@
         <v>7</v>
       </c>
       <c r="H4">
+        <v>918.8</v>
+      </c>
+      <c r="I4">
+        <v>915.8</v>
+      </c>
+      <c r="J4">
         <v>1086</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1082</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="2"/>
-        <v>3.4394646245876234E-4</v>
-      </c>
-      <c r="P4">
+        <v>0.99538106235565815</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="3"/>
         <v>0.39871086556169427</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -6748,28 +10093,37 @@
         <v>9</v>
       </c>
       <c r="H5">
+        <v>1719</v>
+      </c>
+      <c r="I5">
+        <v>1711.4</v>
+      </c>
+      <c r="J5">
         <v>1873</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1865</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <v>22</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2.1356467820575758E-4</v>
-      </c>
-      <c r="P5">
+        <v>0.99691991786447642</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="3"/>
         <v>1.0400427122263749</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -6791,28 +10145,37 @@
         <v>8</v>
       </c>
       <c r="H6">
+        <v>1404.4</v>
+      </c>
+      <c r="I6">
+        <v>1931.1</v>
+      </c>
+      <c r="J6">
         <v>1521</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1506</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="N6">
+      <c r="P6">
+        <v>21</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="2"/>
-        <v>1.6616305424394721E-4</v>
-      </c>
-      <c r="P6">
+        <v>0.99564902102973174</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="3"/>
         <v>1.8132807363576595</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -6834,28 +10197,37 @@
         <v>9.6</v>
       </c>
       <c r="H7">
+        <v>1350.8</v>
+      </c>
+      <c r="I7">
+        <v>1332.1</v>
+      </c>
+      <c r="J7">
         <v>1506</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1482</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>18</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="2"/>
-        <v>1.3384154029277709E-4</v>
-      </c>
-      <c r="P7">
+        <v>0.99471032745591936</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
         <v>2.6361221779548472</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -6877,28 +10249,37 @@
         <v>10</v>
       </c>
       <c r="H8">
+        <v>1969.3</v>
+      </c>
+      <c r="I8">
+        <v>1900.3</v>
+      </c>
+      <c r="J8">
         <v>2308</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2200</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>21</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="2"/>
-        <v>7.0852396766847654E-5</v>
-      </c>
-      <c r="P8">
+        <v>0.99412997903563938</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="3"/>
         <v>4.1334488734835357</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -6920,28 +10301,37 @@
         <v>10.5</v>
       </c>
       <c r="H9">
+        <v>2113.6</v>
+      </c>
+      <c r="I9">
+        <v>1966.4</v>
+      </c>
+      <c r="J9">
         <v>2535</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2318</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="2"/>
-        <v>5.0473686432280005E-5</v>
-      </c>
-      <c r="P9">
+        <v>0.9921612541993281</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
         <v>6.3408284023668635</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6963,55 +10353,89 @@
         <v>11.5</v>
       </c>
       <c r="H10">
+        <v>2508.4</v>
+      </c>
+      <c r="I10">
+        <v>2262.5</v>
+      </c>
+      <c r="J10">
         <v>3069</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2705</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="2"/>
-        <v>4.0468095761257491E-5</v>
-      </c>
-      <c r="P10">
-        <f>C10/H10</f>
+        <v>0.99138740995928598</v>
+      </c>
+      <c r="S10">
+        <f>C10/J10</f>
         <v>8.3232323232323235</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>29000</v>
+      </c>
+      <c r="C11">
+        <v>36428</v>
+      </c>
+      <c r="H11">
+        <v>2613</v>
+      </c>
+      <c r="I11">
+        <v>2214</v>
+      </c>
       <c r="J11">
+        <v>3327</v>
+      </c>
+      <c r="K11">
+        <v>2778</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>16</v>
+        <v>549</v>
       </c>
       <c r="P11">
-        <f>AVERAGE(P2:P10)</f>
-        <v>2.7746691595066175</v>
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <f>C11/J11</f>
+        <v>10.949203486624587</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(S2:S11)</f>
+        <v>3.592122592218415</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -7019,7 +10443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="B16">
         <v>6</v>
       </c>
@@ -7035,20 +10459,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AN33"/>
+  <dimension ref="A3:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView topLeftCell="A76" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="40:40" ht="26.25">
+    <row r="3" spans="2:40" ht="51">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AN3" s="1"/>
     </row>
     <row r="33" spans="2:2" ht="51">
       <c r="B33" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="51">
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="51">
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="51">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="51">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7056,4 +10506,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>